--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\CDados\22-2a-cd-p1-grupo_brunosl2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17203EA-2C4B-4056-B7CF-63D3182351DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D6D022-346F-4E8F-99DB-BD9161355CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="1573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1521">
   <si>
     <t>Categoria</t>
   </si>
@@ -3377,57 +3377,6 @@
     <t>Embarques de milho e carne bovina do Brasil têm recordes em agosto; açúcar dispara</t>
   </si>
   <si>
-    <t>Índia pode eliminar taxa de importação de trigo para esfriar preços, dizem fontes</t>
-  </si>
-  <si>
-    <t>Preço do café arábica ganha 10% na ICE em agosto; açúcar também sobe</t>
-  </si>
-  <si>
-    <t>Brasil envia DDGS para Vietnã, exportação cresce com avanço do etanol de milho</t>
-  </si>
-  <si>
-    <t>Colheita de milho do Brasil atinge 90,9% da área, diz Pátria AgroNegócios</t>
-  </si>
-  <si>
-    <t>Mais lentas, vendas de soja 2022/23 do Brasil atingem 13,4% da produção esperada, diz Datagro</t>
-  </si>
-  <si>
-    <t>Início da safra de soja do Brasil deve contar com chuvas para plantio, diz meteorologia</t>
-  </si>
-  <si>
-    <t>Exportações de grãos da Ucrânia caem quase 60% em agosto, diz governo</t>
-  </si>
-  <si>
-    <t>Com escassez de mão de obra, Malásia caminha para 3º ano de perdas de óleo de palma</t>
-  </si>
-  <si>
-    <t>Tarifa de serviços de energia de Itaipu terá 1ª redução após 13 anos, diz governo</t>
-  </si>
-  <si>
-    <t>Índia pode aprovar em breve exportações de açúcar em duas parcelas, dizem fontes</t>
-  </si>
-  <si>
-    <t>Exportações globais de café crescem 1,3% em junho, diz OIC</t>
-  </si>
-  <si>
-    <t>Brasil colherá mais trigo independentemente de transgênico, diz Embrapa</t>
-  </si>
-  <si>
-    <t>Trigo sobe com ataque russo ameaçando acordo de exportação da Ucrânia</t>
-  </si>
-  <si>
-    <t>Sicredi prevê aumentar crédito rural em 33% em 2022/23 para R$50,6 bi</t>
-  </si>
-  <si>
-    <t>Protesto de fiscais da Receita já atrasa pagamentos por exportação de milho, diz Anec</t>
-  </si>
-  <si>
-    <t>Trigo ucraniano encontra uma forma de chegar ao mercado, diz CEO da Aryzta</t>
-  </si>
-  <si>
-    <t>Custo com adubo para soja sobe 60% no Brasil em 22/23 e consumo cairá, diz StoneX</t>
-  </si>
-  <si>
     <t>PEQUIM (Reuters) – O contrato futuro de suíno vivo mais ativo da China fechou em queda de 4,7% nesta quarta-feira, a maior baixa diária desde o lançamento do contrato, depois que o planejador estatal chinês disse que fortaleceria a supervisão dos preços. Os preços do suíno no maior produtor mundial da carne subiram nos últimos […]</t>
   </si>
   <si>
@@ -4037,60 +3986,6 @@
     <t>Por Nayara Figueiredo e Roberto Samora SÃO PAULO (Reuters) – O Brasil bateu um novo recorde mensal nas exportações de milho ao embarcar 7,55 milhões de toneladas em agosto, volume que supera a máxima histórica anterior de 7,32 milhões registrada em agosto de 2019, mostraram dados do governo nesta quinta-feira. O resultado ainda é 74% […]</t>
   </si>
   <si>
-    <t>Por Rajendra Jadhav MUMBAI (Reuters) – A Índia pode eliminar uma tarifa de 40% sobre as importações de trigo e limitar a quantidade de estoques que os traders podem manter para tentar diminuir os preços recordes no segundo maior produtor do mundo, disseram autoridades do governo e do comércio à Reuters nesta segunda-feira. O Ministério […]</t>
-  </si>
-  <si>
-    <t>NOVA YORK/LONDRES (Reuters) – Os contratos futuros de café arábica na ICE subiram 10% em agosto, enquanto o robusta saltou 11% no mês, em meio a preocupações com a produção. CAFÉ * O café arábica de dezembro subiu apenas 0,05 centavo nesta quarta-feira, para 2,3525 dólares por libra-peso. O contrato atingiu uma máxima de seis […]</t>
-  </si>
-  <si>
-    <t>Por Ana Mano SÃO PAULO (Reuters) – Uma carga de grãos secos de destilaria com solúveis (DDGS) deixou o porto brasileiro de Paranaguá nesta segunda-feira, em momento em que o embarque do ingrediente para ração animal se torna mais frequente depois que as usinas do Brasil começaram a produzir etanol a partir do milho. Um […]</t>
-  </si>
-  <si>
-    <t>SÃO PAULO (Reuters) – A colheita da segunda safra de milho do Brasil 2021/22 foi realizada até esta sexta-feira em 90,92% da área total do país, contra 87,73% registrados na mesma época do ano passado, mas ligeiramente atrás do ritmo da média dos últimos cinco anos (91,70%), informou a consultoria Pátria AgroNegócios. “O destaque fica […]</t>
-  </si>
-  <si>
-    <t>SÃO PAULO (Reuters) – A comercialização de soja do Brasil alcançou 13,4% da produção estimada para a safra 2022/23, que começa em setembro, avanço de 1,7 ponto percentual na comparação com o mês anterior, disse nesta quarta-feira a consultoria Datagro, indicando lentidão nas negociações. Isso porque o fluxo está abaixo dos 19,2% vistos em igual […]</t>
-  </si>
-  <si>
-    <t>Por Roberto Samora SÃO PAULO (Reuters) – O início do plantio de soja do Brasil da safra 2022/23, esperado para meados de setembro, deverá contar com chuvas favoráveis para o desenvolvimento dos trabalhos nas principais regiões produtoras, de acordo com meteorologistas. Um plantio de soja dentro do planejado, com o apoio da umidade adequada, traz […]</t>
-  </si>
-  <si>
-    <t>KIEV (Reuters) – As exportações de grãos da Ucrânia em agosto caíram 59,5% na comparação anual, para 2,26 milhões de toneladas, mostraram dados do Ministério da Agricultura nesta quarta-feira. O volume de exportação inclui 763.000 toneladas de trigo, 1,33 milhão de toneladas de milho e 161.000 toneladas de cevada, mostraram os dados. As exportações de […]</t>
-  </si>
-  <si>
-    <t>Por Mei Mei Chu KUALA LUMPUR (Reuters) – Os plantadores de palma da Malásia estão deixando milhares de toneladas de frutas apodrecerem, já que o terceiro ano de escassez de trabalhadores deixou as empresas incapazes de aumentar sua colheita durante a temporada de pico de produção. A produção de óleo de palma na Malásia, o […]</t>
-  </si>
-  <si>
-    <t>SÃO PAULO (Reuters) – Autoridades da Itaipu Binacional anunciaram nesta terça-feira que a tarifa de serviços de eletricidade da hidrelétrica foi reduzida em 8,2% em 2022, na primeira diminuição após 13 anos do valor que estava “congelado”, disse o Ministério de Minas e Energia. O chamado Custo Unitário dos Serviços de Eletricidade (Cuse), que é […]</t>
-  </si>
-  <si>
-    <t>Por Rajendra Jadhav e Mayank Bhardwaj MUMBAI/NOVA DÉLHI (Reuters) – A Índia deve permitir exportações de açúcar em duas parcelas para a próxima temporada que se inicia em outubro, à medida que o maior produtor mundial do adoçante tenta equilibrar os interesses de seus agricultores e consumidores, disseram autoridades do governo e da indústria à […]</t>
-  </si>
-  <si>
-    <t>NOVA YORK (Reuters) – As exportações globais de café verde atingiram 11,11 milhões de sacas de 60 kg em junho, 1,3% a mais que o volume registrado no mesmo período do ano anterior, informou a Organização Internacional do Café (OIC) em relatório mensal nesta sexta-feira. As exportações do café arábica, o tipo suave preferido por […]</t>
-  </si>
-  <si>
-    <t>Por Ana Mano SÃO PAULO (Reuters) – A meta do Brasil de produzir toda a necessidade de trigo que consome no espaço de 10 anos não leva em consideração o uso de cultivos transgênicos, disse o presidente da empresa de pesquisa agropecuária Embrapa, Celso Moretti, à Reuters nesta terça-feira. As declarações de Moretti, dadas durante […]</t>
-  </si>
-  <si>
-    <t>Por Christopher Walljasper CHICAGO (Reuters) – Os preços do trigo subiram nesta segunda-feira depois que um ataque com mísseis russos no porto ucraniano de Odessa no fim de semana levantou dúvidas sobre a implementação do acordo da semana passada para abrir um corredor para as exportações de grãos da Ucrânia. Os futuros de soja e […]</t>
-  </si>
-  <si>
-    <t>SÃO PAULO (Reuters) – O Sicredi afirmou nesta quarta-feira que disponibilizará mais de 50,6 bilhões de reais aos produtores rurais no âmbito do Plano Safra 2022/2023, que será lançado nesta quarta-feira pelo governo brasileiro, disse a instituição financeira cooperativa com mais de 6 milhões de associados no país. O valor previsto pelo Sicredi, segunda maior […]</t>
-  </si>
-  <si>
-    <t>Por Nayara Figueiredo SÃO PAULO (Reuters) -Exportadores de milho têm enfrentado atrasos de até sete dias na liberação de documentos necessários para o recebimento de pagamentos pelo produto embarcado, devido à continuidade de uma operação padrão de fiscais da Receita Federal, disse à Reuters a Associação Nacional dos Exportadores de Cereais (Anec). O problema já […]</t>
-  </si>
-  <si>
-    <t>Por Nayara Figueiredo SÃO PAULO (Reuters) – O Brasil exportou 39,589 milhões de sacas de 60 quilos de café na safra 2021/22 encerrada em junho, queda de 13,3% ante período anterior, e uma recuperação nos embarques do novo ciclo, de bienalidade positiva, dependerá das condições logísticas, disse o Conselho dos Exportadores de Café do Brasil […]</t>
-  </si>
-  <si>
-    <t>ZURIQUE (Reuters) – O trigo ucraniano está chegando aos mercados mundiais apesar da invasão russa, disse o chefe do grupo suíço de produtos de panificação Aryzta em entrevista a um jornal. “No momento, as quantidades de grãos ainda estão lá, eles simplesmente não podem ser exportados sob controle ucraniano. Mas eles encontram outras maneiras de […]</t>
-  </si>
-  <si>
-    <t>SÃO PAULO (Reuters) – O custo com fertilizantes para o produtor de soja do Brasil aumentou 60% em 2022/23, enquanto o produtor de milho primeira safra deverá ter alta média nas despesas de 85%, com a disparada nos preços dos adubos que deverá resultar em uma queda no consumo no país, afirmou um relatório da […]</t>
-  </si>
-  <si>
     <t>06/07/2022 09:01</t>
   </si>
   <si>
@@ -4689,57 +4584,6 @@
   </si>
   <si>
     <t>01/09/2022 16:43</t>
-  </si>
-  <si>
-    <t>27/07/2022 17:35</t>
-  </si>
-  <si>
-    <t>31/08/2022 18:15</t>
-  </si>
-  <si>
-    <t>15/08/2022 16:35</t>
-  </si>
-  <si>
-    <t>02/09/2022 17:13</t>
-  </si>
-  <si>
-    <t>13/07/2022 20:58</t>
-  </si>
-  <si>
-    <t>24/08/2022 20:34</t>
-  </si>
-  <si>
-    <t>31/08/2022 12:12</t>
-  </si>
-  <si>
-    <t>08/09/2022 08:33</t>
-  </si>
-  <si>
-    <t>09/08/2022 17:18</t>
-  </si>
-  <si>
-    <t>01/09/2022 08:24</t>
-  </si>
-  <si>
-    <t>05/08/2022 16:44</t>
-  </si>
-  <si>
-    <t>26/07/2022 14:00</t>
-  </si>
-  <si>
-    <t>25/07/2022 17:36</t>
-  </si>
-  <si>
-    <t>29/06/2022 13:38</t>
-  </si>
-  <si>
-    <t>29/07/2022 14:29</t>
-  </si>
-  <si>
-    <t>01/07/2022 15:13</t>
-  </si>
-  <si>
-    <t>05/09/2022 12:43</t>
   </si>
 </sst>
 </file>
@@ -5144,7 +4988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="143" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScale="143" workbookViewId="0">
       <selection activeCell="F309" sqref="F309"/>
     </sheetView>
   </sheetViews>
@@ -11242,11 +11086,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="160" workbookViewId="0">
+      <selection activeCell="A207" sqref="A207:F226"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="64.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -11276,14 +11125,17 @@
         <v>915</v>
       </c>
       <c r="C2" t="s">
-        <v>1135</v>
+        <v>1118</v>
       </c>
       <c r="D2" t="s">
-        <v>1356</v>
+        <v>1321</v>
       </c>
       <c r="E2">
         <v>25</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -11293,14 +11145,17 @@
         <v>916</v>
       </c>
       <c r="C3" t="s">
-        <v>1136</v>
+        <v>1119</v>
       </c>
       <c r="D3" t="s">
-        <v>1357</v>
+        <v>1322</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -11310,14 +11165,17 @@
         <v>917</v>
       </c>
       <c r="C4" t="s">
-        <v>1137</v>
+        <v>1120</v>
       </c>
       <c r="D4" t="s">
-        <v>1358</v>
+        <v>1323</v>
       </c>
       <c r="E4">
         <v>23</v>
       </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -11327,14 +11185,17 @@
         <v>918</v>
       </c>
       <c r="C5" t="s">
-        <v>1138</v>
+        <v>1121</v>
       </c>
       <c r="D5" t="s">
-        <v>1359</v>
+        <v>1324</v>
       </c>
       <c r="E5">
         <v>28</v>
       </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -11344,14 +11205,17 @@
         <v>919</v>
       </c>
       <c r="C6" t="s">
-        <v>1139</v>
+        <v>1122</v>
       </c>
       <c r="D6" t="s">
-        <v>1360</v>
+        <v>1325</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -11361,14 +11225,17 @@
         <v>920</v>
       </c>
       <c r="C7" t="s">
-        <v>1140</v>
+        <v>1123</v>
       </c>
       <c r="D7" t="s">
-        <v>1361</v>
+        <v>1326</v>
       </c>
       <c r="E7">
         <v>24</v>
       </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -11378,14 +11245,17 @@
         <v>921</v>
       </c>
       <c r="C8" t="s">
-        <v>1141</v>
+        <v>1124</v>
       </c>
       <c r="D8" t="s">
-        <v>1362</v>
+        <v>1327</v>
       </c>
       <c r="E8">
         <v>25</v>
       </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -11395,14 +11265,17 @@
         <v>922</v>
       </c>
       <c r="C9" t="s">
-        <v>1142</v>
+        <v>1125</v>
       </c>
       <c r="D9" t="s">
-        <v>1363</v>
+        <v>1328</v>
       </c>
       <c r="E9">
         <v>19</v>
       </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -11412,14 +11285,17 @@
         <v>923</v>
       </c>
       <c r="C10" t="s">
-        <v>1143</v>
+        <v>1126</v>
       </c>
       <c r="D10" t="s">
-        <v>1364</v>
+        <v>1329</v>
       </c>
       <c r="E10">
         <v>26</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -11429,12 +11305,15 @@
         <v>924</v>
       </c>
       <c r="C11" t="s">
-        <v>1144</v>
+        <v>1127</v>
       </c>
       <c r="D11" t="s">
-        <v>1365</v>
+        <v>1330</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
@@ -11446,14 +11325,17 @@
         <v>925</v>
       </c>
       <c r="C12" t="s">
-        <v>1145</v>
+        <v>1128</v>
       </c>
       <c r="D12" t="s">
-        <v>1366</v>
+        <v>1331</v>
       </c>
       <c r="E12">
         <v>12</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -11463,13 +11345,16 @@
         <v>926</v>
       </c>
       <c r="C13" t="s">
-        <v>1146</v>
+        <v>1129</v>
       </c>
       <c r="D13" t="s">
-        <v>1367</v>
+        <v>1332</v>
       </c>
       <c r="E13">
         <v>6</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -11480,14 +11365,17 @@
         <v>927</v>
       </c>
       <c r="C14" t="s">
-        <v>1147</v>
+        <v>1130</v>
       </c>
       <c r="D14" t="s">
-        <v>1368</v>
+        <v>1333</v>
       </c>
       <c r="E14">
         <v>21</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -11497,14 +11385,17 @@
         <v>928</v>
       </c>
       <c r="C15" t="s">
-        <v>1148</v>
+        <v>1131</v>
       </c>
       <c r="D15" t="s">
-        <v>1369</v>
+        <v>1334</v>
       </c>
       <c r="E15">
         <v>22</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -11514,16 +11405,19 @@
         <v>929</v>
       </c>
       <c r="C16" t="s">
-        <v>1149</v>
+        <v>1132</v>
       </c>
       <c r="D16" t="s">
-        <v>1370</v>
+        <v>1335</v>
       </c>
       <c r="E16">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -11531,16 +11425,19 @@
         <v>930</v>
       </c>
       <c r="C17" t="s">
-        <v>1150</v>
+        <v>1133</v>
       </c>
       <c r="D17" t="s">
-        <v>1371</v>
+        <v>1336</v>
       </c>
       <c r="E17">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -11548,16 +11445,19 @@
         <v>931</v>
       </c>
       <c r="C18" t="s">
-        <v>1151</v>
+        <v>1134</v>
       </c>
       <c r="D18" t="s">
-        <v>1372</v>
+        <v>1337</v>
       </c>
       <c r="E18">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -11565,16 +11465,19 @@
         <v>932</v>
       </c>
       <c r="C19" t="s">
-        <v>1152</v>
+        <v>1135</v>
       </c>
       <c r="D19" t="s">
-        <v>1373</v>
+        <v>1338</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -11582,16 +11485,19 @@
         <v>933</v>
       </c>
       <c r="C20" t="s">
-        <v>1153</v>
+        <v>1136</v>
       </c>
       <c r="D20" t="s">
-        <v>1374</v>
+        <v>1339</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -11599,16 +11505,19 @@
         <v>934</v>
       </c>
       <c r="C21" t="s">
-        <v>1154</v>
+        <v>1137</v>
       </c>
       <c r="D21" t="s">
-        <v>1375</v>
+        <v>1340</v>
       </c>
       <c r="E21">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -11616,16 +11525,19 @@
         <v>935</v>
       </c>
       <c r="C22" t="s">
-        <v>1155</v>
+        <v>1138</v>
       </c>
       <c r="D22" t="s">
-        <v>1376</v>
+        <v>1341</v>
       </c>
       <c r="E22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -11633,16 +11545,19 @@
         <v>936</v>
       </c>
       <c r="C23" t="s">
-        <v>1156</v>
+        <v>1139</v>
       </c>
       <c r="D23" t="s">
-        <v>1377</v>
+        <v>1342</v>
       </c>
       <c r="E23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -11650,16 +11565,19 @@
         <v>937</v>
       </c>
       <c r="C24" t="s">
-        <v>1157</v>
+        <v>1140</v>
       </c>
       <c r="D24" t="s">
-        <v>1378</v>
+        <v>1343</v>
       </c>
       <c r="E24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -11667,16 +11585,19 @@
         <v>938</v>
       </c>
       <c r="C25" t="s">
-        <v>1158</v>
+        <v>1141</v>
       </c>
       <c r="D25" t="s">
-        <v>1379</v>
+        <v>1344</v>
       </c>
       <c r="E25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -11684,16 +11605,19 @@
         <v>939</v>
       </c>
       <c r="C26" t="s">
-        <v>1159</v>
+        <v>1142</v>
       </c>
       <c r="D26" t="s">
-        <v>1380</v>
+        <v>1345</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -11701,16 +11625,19 @@
         <v>940</v>
       </c>
       <c r="C27" t="s">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="D27" t="s">
-        <v>1381</v>
+        <v>1346</v>
       </c>
       <c r="E27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -11718,16 +11645,19 @@
         <v>941</v>
       </c>
       <c r="C28" t="s">
-        <v>1161</v>
+        <v>1144</v>
       </c>
       <c r="D28" t="s">
-        <v>1382</v>
+        <v>1347</v>
       </c>
       <c r="E28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -11735,16 +11665,19 @@
         <v>942</v>
       </c>
       <c r="C29" t="s">
-        <v>1162</v>
+        <v>1145</v>
       </c>
       <c r="D29" t="s">
-        <v>1383</v>
+        <v>1348</v>
       </c>
       <c r="E29">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -11752,16 +11685,19 @@
         <v>943</v>
       </c>
       <c r="C30" t="s">
-        <v>1163</v>
+        <v>1146</v>
       </c>
       <c r="D30" t="s">
-        <v>1384</v>
+        <v>1349</v>
       </c>
       <c r="E30">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -11769,16 +11705,19 @@
         <v>944</v>
       </c>
       <c r="C31" t="s">
-        <v>1164</v>
+        <v>1147</v>
       </c>
       <c r="D31" t="s">
-        <v>1385</v>
+        <v>1350</v>
       </c>
       <c r="E31">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -11786,16 +11725,19 @@
         <v>945</v>
       </c>
       <c r="C32" t="s">
-        <v>1165</v>
+        <v>1148</v>
       </c>
       <c r="D32" t="s">
-        <v>1386</v>
+        <v>1351</v>
       </c>
       <c r="E32">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -11803,16 +11745,19 @@
         <v>946</v>
       </c>
       <c r="C33" t="s">
-        <v>1166</v>
+        <v>1149</v>
       </c>
       <c r="D33" t="s">
-        <v>1387</v>
+        <v>1352</v>
       </c>
       <c r="E33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -11820,16 +11765,19 @@
         <v>947</v>
       </c>
       <c r="C34" t="s">
-        <v>1167</v>
+        <v>1150</v>
       </c>
       <c r="D34" t="s">
-        <v>1388</v>
+        <v>1353</v>
       </c>
       <c r="E34">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -11837,16 +11785,19 @@
         <v>948</v>
       </c>
       <c r="C35" t="s">
-        <v>1168</v>
+        <v>1151</v>
       </c>
       <c r="D35" t="s">
-        <v>1389</v>
+        <v>1354</v>
       </c>
       <c r="E35">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -11854,16 +11805,19 @@
         <v>949</v>
       </c>
       <c r="C36" t="s">
-        <v>1169</v>
+        <v>1152</v>
       </c>
       <c r="D36" t="s">
-        <v>1390</v>
+        <v>1355</v>
       </c>
       <c r="E36">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -11871,16 +11825,19 @@
         <v>950</v>
       </c>
       <c r="C37" t="s">
-        <v>1170</v>
+        <v>1153</v>
       </c>
       <c r="D37" t="s">
-        <v>1391</v>
+        <v>1356</v>
       </c>
       <c r="E37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -11888,16 +11845,19 @@
         <v>951</v>
       </c>
       <c r="C38" t="s">
-        <v>1171</v>
+        <v>1154</v>
       </c>
       <c r="D38" t="s">
-        <v>1392</v>
+        <v>1357</v>
       </c>
       <c r="E38">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -11905,16 +11865,19 @@
         <v>952</v>
       </c>
       <c r="C39" t="s">
-        <v>1172</v>
+        <v>1155</v>
       </c>
       <c r="D39" t="s">
-        <v>1393</v>
+        <v>1358</v>
       </c>
       <c r="E39">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -11922,16 +11885,19 @@
         <v>953</v>
       </c>
       <c r="C40" t="s">
-        <v>1173</v>
+        <v>1156</v>
       </c>
       <c r="D40" t="s">
-        <v>1394</v>
+        <v>1359</v>
       </c>
       <c r="E40">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -11939,16 +11905,19 @@
         <v>954</v>
       </c>
       <c r="C41" t="s">
-        <v>1174</v>
+        <v>1157</v>
       </c>
       <c r="D41" t="s">
-        <v>1395</v>
+        <v>1360</v>
       </c>
       <c r="E41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -11956,16 +11925,19 @@
         <v>955</v>
       </c>
       <c r="C42" t="s">
-        <v>1175</v>
+        <v>1158</v>
       </c>
       <c r="D42" t="s">
-        <v>1396</v>
+        <v>1361</v>
       </c>
       <c r="E42">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -11973,16 +11945,19 @@
         <v>956</v>
       </c>
       <c r="C43" t="s">
-        <v>1176</v>
+        <v>1159</v>
       </c>
       <c r="D43" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="E43">
         <v>28</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -11990,16 +11965,19 @@
         <v>957</v>
       </c>
       <c r="C44" t="s">
-        <v>1177</v>
+        <v>1160</v>
       </c>
       <c r="D44" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -12007,16 +11985,19 @@
         <v>958</v>
       </c>
       <c r="C45" t="s">
-        <v>1178</v>
+        <v>1161</v>
       </c>
       <c r="D45" t="s">
-        <v>1399</v>
+        <v>1364</v>
       </c>
       <c r="E45">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -12024,16 +12005,19 @@
         <v>959</v>
       </c>
       <c r="C46" t="s">
-        <v>1179</v>
+        <v>1162</v>
       </c>
       <c r="D46" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="E46">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -12041,16 +12025,19 @@
         <v>960</v>
       </c>
       <c r="C47" t="s">
-        <v>1180</v>
+        <v>1163</v>
       </c>
       <c r="D47" t="s">
-        <v>1401</v>
+        <v>1366</v>
       </c>
       <c r="E47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -12058,16 +12045,19 @@
         <v>961</v>
       </c>
       <c r="C48" t="s">
-        <v>1181</v>
+        <v>1164</v>
       </c>
       <c r="D48" t="s">
-        <v>1402</v>
+        <v>1367</v>
       </c>
       <c r="E48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -12075,16 +12065,19 @@
         <v>962</v>
       </c>
       <c r="C49" t="s">
-        <v>1182</v>
+        <v>1165</v>
       </c>
       <c r="D49" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="E49">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -12092,16 +12085,19 @@
         <v>963</v>
       </c>
       <c r="C50" t="s">
-        <v>1183</v>
+        <v>1166</v>
       </c>
       <c r="D50" t="s">
-        <v>1404</v>
+        <v>1369</v>
       </c>
       <c r="E50">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -12109,16 +12105,19 @@
         <v>964</v>
       </c>
       <c r="C51" t="s">
-        <v>1184</v>
+        <v>1167</v>
       </c>
       <c r="D51" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="E51">
         <v>23</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -12126,16 +12125,19 @@
         <v>965</v>
       </c>
       <c r="C52" t="s">
-        <v>1185</v>
+        <v>1168</v>
       </c>
       <c r="D52" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -12143,16 +12145,19 @@
         <v>966</v>
       </c>
       <c r="C53" t="s">
-        <v>1186</v>
+        <v>1169</v>
       </c>
       <c r="D53" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="E53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -12160,16 +12165,19 @@
         <v>967</v>
       </c>
       <c r="C54" t="s">
-        <v>1187</v>
+        <v>1170</v>
       </c>
       <c r="D54" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="E54">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -12177,16 +12185,19 @@
         <v>968</v>
       </c>
       <c r="C55" t="s">
-        <v>1188</v>
+        <v>1171</v>
       </c>
       <c r="D55" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="E55">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -12194,16 +12205,19 @@
         <v>969</v>
       </c>
       <c r="C56" t="s">
-        <v>1189</v>
+        <v>1172</v>
       </c>
       <c r="D56" t="s">
-        <v>1410</v>
+        <v>1375</v>
       </c>
       <c r="E56">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -12211,16 +12225,19 @@
         <v>970</v>
       </c>
       <c r="C57" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="D57" t="s">
-        <v>1411</v>
+        <v>1376</v>
       </c>
       <c r="E57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -12228,16 +12245,19 @@
         <v>971</v>
       </c>
       <c r="C58" t="s">
-        <v>1191</v>
+        <v>1174</v>
       </c>
       <c r="D58" t="s">
-        <v>1412</v>
+        <v>1377</v>
       </c>
       <c r="E58">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -12245,16 +12265,19 @@
         <v>972</v>
       </c>
       <c r="C59" t="s">
-        <v>1192</v>
+        <v>1175</v>
       </c>
       <c r="D59" t="s">
-        <v>1413</v>
+        <v>1378</v>
       </c>
       <c r="E59">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -12262,16 +12285,19 @@
         <v>973</v>
       </c>
       <c r="C60" t="s">
-        <v>1193</v>
+        <v>1176</v>
       </c>
       <c r="D60" t="s">
-        <v>1414</v>
+        <v>1379</v>
       </c>
       <c r="E60">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -12279,16 +12305,19 @@
         <v>974</v>
       </c>
       <c r="C61" t="s">
-        <v>1194</v>
+        <v>1177</v>
       </c>
       <c r="D61" t="s">
-        <v>1415</v>
+        <v>1380</v>
       </c>
       <c r="E61">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -12296,16 +12325,19 @@
         <v>975</v>
       </c>
       <c r="C62" t="s">
-        <v>1195</v>
+        <v>1178</v>
       </c>
       <c r="D62" t="s">
-        <v>1416</v>
+        <v>1381</v>
       </c>
       <c r="E62">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -12313,16 +12345,19 @@
         <v>976</v>
       </c>
       <c r="C63" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
       <c r="D63" t="s">
-        <v>1417</v>
+        <v>1382</v>
       </c>
       <c r="E63">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -12330,16 +12365,19 @@
         <v>977</v>
       </c>
       <c r="C64" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="D64" t="s">
-        <v>1418</v>
+        <v>1383</v>
       </c>
       <c r="E64">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -12347,16 +12385,19 @@
         <v>978</v>
       </c>
       <c r="C65" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="D65" t="s">
-        <v>1419</v>
+        <v>1384</v>
       </c>
       <c r="E65">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -12364,16 +12405,19 @@
         <v>979</v>
       </c>
       <c r="C66" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="D66" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="E66">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -12381,7 +12425,7 @@
         <v>980</v>
       </c>
       <c r="C67" t="s">
-        <v>1200</v>
+        <v>1183</v>
       </c>
       <c r="D67" t="s">
         <v>680</v>
@@ -12389,8 +12433,11 @@
       <c r="E67">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -12398,16 +12445,19 @@
         <v>981</v>
       </c>
       <c r="C68" t="s">
-        <v>1201</v>
+        <v>1184</v>
       </c>
       <c r="D68" t="s">
-        <v>1421</v>
+        <v>1386</v>
       </c>
       <c r="E68">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -12415,16 +12465,19 @@
         <v>982</v>
       </c>
       <c r="C69" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
       <c r="D69" t="s">
-        <v>1422</v>
+        <v>1387</v>
       </c>
       <c r="E69">
         <v>25</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -12432,16 +12485,19 @@
         <v>983</v>
       </c>
       <c r="C70" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
       <c r="D70" t="s">
-        <v>1423</v>
+        <v>1388</v>
       </c>
       <c r="E70">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -12449,16 +12505,19 @@
         <v>984</v>
       </c>
       <c r="C71" t="s">
-        <v>1204</v>
+        <v>1187</v>
       </c>
       <c r="D71" t="s">
-        <v>1424</v>
+        <v>1389</v>
       </c>
       <c r="E71">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -12466,16 +12525,19 @@
         <v>985</v>
       </c>
       <c r="C72" t="s">
-        <v>1205</v>
+        <v>1188</v>
       </c>
       <c r="D72" t="s">
-        <v>1425</v>
+        <v>1390</v>
       </c>
       <c r="E72">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -12483,16 +12545,19 @@
         <v>986</v>
       </c>
       <c r="C73" t="s">
-        <v>1206</v>
+        <v>1189</v>
       </c>
       <c r="D73" t="s">
-        <v>1426</v>
+        <v>1391</v>
       </c>
       <c r="E73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -12500,16 +12565,19 @@
         <v>987</v>
       </c>
       <c r="C74" t="s">
-        <v>1207</v>
+        <v>1190</v>
       </c>
       <c r="D74" t="s">
-        <v>1427</v>
+        <v>1392</v>
       </c>
       <c r="E74">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -12517,16 +12585,19 @@
         <v>988</v>
       </c>
       <c r="C75" t="s">
-        <v>1208</v>
+        <v>1191</v>
       </c>
       <c r="D75" t="s">
-        <v>1428</v>
+        <v>1393</v>
       </c>
       <c r="E75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -12534,16 +12605,19 @@
         <v>989</v>
       </c>
       <c r="C76" t="s">
-        <v>1209</v>
+        <v>1192</v>
       </c>
       <c r="D76" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="E76">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -12551,16 +12625,19 @@
         <v>990</v>
       </c>
       <c r="C77" t="s">
-        <v>1210</v>
+        <v>1193</v>
       </c>
       <c r="D77" t="s">
-        <v>1430</v>
+        <v>1395</v>
       </c>
       <c r="E77">
         <v>27</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -12568,16 +12645,19 @@
         <v>991</v>
       </c>
       <c r="C78" t="s">
-        <v>1211</v>
+        <v>1194</v>
       </c>
       <c r="D78" t="s">
-        <v>1431</v>
+        <v>1396</v>
       </c>
       <c r="E78">
         <v>26</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -12585,16 +12665,19 @@
         <v>992</v>
       </c>
       <c r="C79" t="s">
-        <v>1212</v>
+        <v>1195</v>
       </c>
       <c r="D79" t="s">
-        <v>1432</v>
+        <v>1397</v>
       </c>
       <c r="E79">
         <v>26</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -12602,16 +12685,19 @@
         <v>993</v>
       </c>
       <c r="C80" t="s">
-        <v>1213</v>
+        <v>1196</v>
       </c>
       <c r="D80" t="s">
-        <v>1433</v>
+        <v>1398</v>
       </c>
       <c r="E80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -12619,16 +12705,19 @@
         <v>994</v>
       </c>
       <c r="C81" t="s">
-        <v>1214</v>
+        <v>1197</v>
       </c>
       <c r="D81" t="s">
-        <v>1434</v>
+        <v>1399</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -12636,16 +12725,19 @@
         <v>995</v>
       </c>
       <c r="C82" t="s">
-        <v>1215</v>
+        <v>1198</v>
       </c>
       <c r="D82" t="s">
-        <v>1435</v>
+        <v>1400</v>
       </c>
       <c r="E82">
         <v>21</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -12653,16 +12745,19 @@
         <v>996</v>
       </c>
       <c r="C83" t="s">
-        <v>1216</v>
+        <v>1199</v>
       </c>
       <c r="D83" t="s">
-        <v>1436</v>
+        <v>1401</v>
       </c>
       <c r="E83">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -12670,16 +12765,19 @@
         <v>997</v>
       </c>
       <c r="C84" t="s">
-        <v>1217</v>
+        <v>1200</v>
       </c>
       <c r="D84" t="s">
-        <v>1437</v>
+        <v>1402</v>
       </c>
       <c r="E84">
         <v>27</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -12687,16 +12785,19 @@
         <v>998</v>
       </c>
       <c r="C85" t="s">
-        <v>1218</v>
+        <v>1201</v>
       </c>
       <c r="D85" t="s">
-        <v>1438</v>
+        <v>1403</v>
       </c>
       <c r="E85">
         <v>26</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -12704,16 +12805,19 @@
         <v>999</v>
       </c>
       <c r="C86" t="s">
-        <v>1219</v>
+        <v>1202</v>
       </c>
       <c r="D86" t="s">
-        <v>1439</v>
+        <v>1404</v>
       </c>
       <c r="E86">
         <v>19</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -12721,16 +12825,19 @@
         <v>1000</v>
       </c>
       <c r="C87" t="s">
-        <v>1220</v>
+        <v>1203</v>
       </c>
       <c r="D87" t="s">
-        <v>1440</v>
+        <v>1405</v>
       </c>
       <c r="E87">
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -12738,16 +12845,19 @@
         <v>1001</v>
       </c>
       <c r="C88" t="s">
-        <v>1221</v>
+        <v>1204</v>
       </c>
       <c r="D88" t="s">
-        <v>1441</v>
+        <v>1406</v>
       </c>
       <c r="E88">
         <v>26</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -12755,16 +12865,19 @@
         <v>1002</v>
       </c>
       <c r="C89" t="s">
-        <v>1222</v>
+        <v>1205</v>
       </c>
       <c r="D89" t="s">
-        <v>1442</v>
+        <v>1407</v>
       </c>
       <c r="E89">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -12772,7 +12885,7 @@
         <v>1003</v>
       </c>
       <c r="C90" t="s">
-        <v>1223</v>
+        <v>1206</v>
       </c>
       <c r="D90" t="s">
         <v>794</v>
@@ -12780,8 +12893,11 @@
       <c r="E90">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -12789,16 +12905,19 @@
         <v>1004</v>
       </c>
       <c r="C91" t="s">
-        <v>1224</v>
+        <v>1207</v>
       </c>
       <c r="D91" t="s">
-        <v>1443</v>
+        <v>1408</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -12806,16 +12925,19 @@
         <v>1005</v>
       </c>
       <c r="C92" t="s">
-        <v>1225</v>
+        <v>1208</v>
       </c>
       <c r="D92" t="s">
-        <v>1444</v>
+        <v>1409</v>
       </c>
       <c r="E92">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -12823,16 +12945,19 @@
         <v>1006</v>
       </c>
       <c r="C93" t="s">
-        <v>1226</v>
+        <v>1209</v>
       </c>
       <c r="D93" t="s">
-        <v>1445</v>
+        <v>1410</v>
       </c>
       <c r="E93">
         <v>21</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -12840,16 +12965,19 @@
         <v>1007</v>
       </c>
       <c r="C94" t="s">
-        <v>1227</v>
+        <v>1210</v>
       </c>
       <c r="D94" t="s">
-        <v>1446</v>
+        <v>1411</v>
       </c>
       <c r="E94">
         <v>15</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -12857,16 +12985,19 @@
         <v>1008</v>
       </c>
       <c r="C95" t="s">
-        <v>1228</v>
+        <v>1211</v>
       </c>
       <c r="D95" t="s">
-        <v>1447</v>
+        <v>1412</v>
       </c>
       <c r="E95">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -12874,16 +13005,19 @@
         <v>1009</v>
       </c>
       <c r="C96" t="s">
-        <v>1229</v>
+        <v>1212</v>
       </c>
       <c r="D96" t="s">
-        <v>1448</v>
+        <v>1413</v>
       </c>
       <c r="E96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -12891,16 +13025,19 @@
         <v>1010</v>
       </c>
       <c r="C97" t="s">
-        <v>1230</v>
+        <v>1213</v>
       </c>
       <c r="D97" t="s">
-        <v>1449</v>
+        <v>1414</v>
       </c>
       <c r="E97">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -12908,16 +13045,19 @@
         <v>1011</v>
       </c>
       <c r="C98" t="s">
-        <v>1231</v>
+        <v>1214</v>
       </c>
       <c r="D98" t="s">
-        <v>1450</v>
+        <v>1415</v>
       </c>
       <c r="E98">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -12925,16 +13065,19 @@
         <v>1012</v>
       </c>
       <c r="C99" t="s">
-        <v>1232</v>
+        <v>1215</v>
       </c>
       <c r="D99" t="s">
-        <v>1451</v>
+        <v>1416</v>
       </c>
       <c r="E99">
         <v>11</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -12942,16 +13085,19 @@
         <v>1013</v>
       </c>
       <c r="C100" t="s">
-        <v>1233</v>
+        <v>1216</v>
       </c>
       <c r="D100" t="s">
-        <v>1452</v>
+        <v>1417</v>
       </c>
       <c r="E100">
         <v>22</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -12959,16 +13105,19 @@
         <v>1014</v>
       </c>
       <c r="C101" t="s">
-        <v>1234</v>
+        <v>1217</v>
       </c>
       <c r="D101" t="s">
-        <v>1453</v>
+        <v>1418</v>
       </c>
       <c r="E101">
         <v>26</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -12976,16 +13125,19 @@
         <v>1015</v>
       </c>
       <c r="C102" t="s">
-        <v>1235</v>
+        <v>1218</v>
       </c>
       <c r="D102" t="s">
-        <v>1454</v>
+        <v>1419</v>
       </c>
       <c r="E102">
         <v>23</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -12993,16 +13145,19 @@
         <v>1016</v>
       </c>
       <c r="C103" t="s">
-        <v>1236</v>
+        <v>1219</v>
       </c>
       <c r="D103" t="s">
-        <v>1455</v>
+        <v>1420</v>
       </c>
       <c r="E103">
         <v>19</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -13010,16 +13165,19 @@
         <v>1017</v>
       </c>
       <c r="C104" t="s">
-        <v>1237</v>
+        <v>1220</v>
       </c>
       <c r="D104" t="s">
-        <v>1456</v>
+        <v>1421</v>
       </c>
       <c r="E104">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -13027,16 +13185,19 @@
         <v>1018</v>
       </c>
       <c r="C105" t="s">
-        <v>1238</v>
+        <v>1221</v>
       </c>
       <c r="D105" t="s">
-        <v>1457</v>
+        <v>1422</v>
       </c>
       <c r="E105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -13044,16 +13205,19 @@
         <v>1019</v>
       </c>
       <c r="C106" t="s">
-        <v>1239</v>
+        <v>1222</v>
       </c>
       <c r="D106" t="s">
-        <v>1458</v>
+        <v>1423</v>
       </c>
       <c r="E106">
         <v>17</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -13061,16 +13225,19 @@
         <v>1020</v>
       </c>
       <c r="C107" t="s">
-        <v>1240</v>
+        <v>1223</v>
       </c>
       <c r="D107" t="s">
-        <v>1459</v>
+        <v>1424</v>
       </c>
       <c r="E107">
         <v>22</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -13078,16 +13245,19 @@
         <v>1021</v>
       </c>
       <c r="C108" t="s">
-        <v>1241</v>
+        <v>1224</v>
       </c>
       <c r="D108" t="s">
-        <v>1460</v>
+        <v>1425</v>
       </c>
       <c r="E108">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -13095,16 +13265,19 @@
         <v>1022</v>
       </c>
       <c r="C109" t="s">
-        <v>1242</v>
+        <v>1225</v>
       </c>
       <c r="D109" t="s">
-        <v>1461</v>
+        <v>1426</v>
       </c>
       <c r="E109">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -13112,16 +13285,19 @@
         <v>1023</v>
       </c>
       <c r="C110" t="s">
-        <v>1243</v>
+        <v>1226</v>
       </c>
       <c r="D110" t="s">
-        <v>1462</v>
+        <v>1427</v>
       </c>
       <c r="E110">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -13129,16 +13305,19 @@
         <v>1024</v>
       </c>
       <c r="C111" t="s">
-        <v>1244</v>
+        <v>1227</v>
       </c>
       <c r="D111" t="s">
-        <v>1463</v>
+        <v>1428</v>
       </c>
       <c r="E111">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -13146,16 +13325,19 @@
         <v>1025</v>
       </c>
       <c r="C112" t="s">
-        <v>1245</v>
+        <v>1228</v>
       </c>
       <c r="D112" t="s">
-        <v>1464</v>
+        <v>1429</v>
       </c>
       <c r="E112">
         <v>21</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -13163,16 +13345,19 @@
         <v>1026</v>
       </c>
       <c r="C113" t="s">
-        <v>1246</v>
+        <v>1229</v>
       </c>
       <c r="D113" t="s">
-        <v>1465</v>
+        <v>1430</v>
       </c>
       <c r="E113">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -13180,16 +13365,19 @@
         <v>1027</v>
       </c>
       <c r="C114" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="D114" t="s">
-        <v>1466</v>
+        <v>1431</v>
       </c>
       <c r="E114">
         <v>25</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -13197,16 +13385,19 @@
         <v>1028</v>
       </c>
       <c r="C115" t="s">
-        <v>1248</v>
+        <v>1231</v>
       </c>
       <c r="D115" t="s">
-        <v>1467</v>
+        <v>1432</v>
       </c>
       <c r="E115">
         <v>12</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -13214,16 +13405,19 @@
         <v>1029</v>
       </c>
       <c r="C116" t="s">
-        <v>1249</v>
+        <v>1232</v>
       </c>
       <c r="D116" t="s">
-        <v>1468</v>
+        <v>1433</v>
       </c>
       <c r="E116">
         <v>15</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -13231,16 +13425,19 @@
         <v>1030</v>
       </c>
       <c r="C117" t="s">
-        <v>1250</v>
+        <v>1233</v>
       </c>
       <c r="D117" t="s">
-        <v>1469</v>
+        <v>1434</v>
       </c>
       <c r="E117">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -13248,16 +13445,19 @@
         <v>1031</v>
       </c>
       <c r="C118" t="s">
-        <v>1251</v>
+        <v>1234</v>
       </c>
       <c r="D118" t="s">
-        <v>1470</v>
+        <v>1435</v>
       </c>
       <c r="E118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -13265,16 +13465,19 @@
         <v>1032</v>
       </c>
       <c r="C119" t="s">
-        <v>1252</v>
+        <v>1235</v>
       </c>
       <c r="D119" t="s">
-        <v>1471</v>
+        <v>1436</v>
       </c>
       <c r="E119">
         <v>11</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -13282,16 +13485,19 @@
         <v>1033</v>
       </c>
       <c r="C120" t="s">
-        <v>1253</v>
+        <v>1236</v>
       </c>
       <c r="D120" t="s">
-        <v>1472</v>
+        <v>1437</v>
       </c>
       <c r="E120">
         <v>27</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -13299,16 +13505,19 @@
         <v>1034</v>
       </c>
       <c r="C121" t="s">
-        <v>1254</v>
+        <v>1237</v>
       </c>
       <c r="D121" t="s">
-        <v>1473</v>
+        <v>1438</v>
       </c>
       <c r="E121">
         <v>18</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -13316,16 +13525,19 @@
         <v>1035</v>
       </c>
       <c r="C122" t="s">
-        <v>1255</v>
+        <v>1238</v>
       </c>
       <c r="D122" t="s">
-        <v>1474</v>
+        <v>1439</v>
       </c>
       <c r="E122">
         <v>26</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -13333,16 +13545,19 @@
         <v>1036</v>
       </c>
       <c r="C123" t="s">
-        <v>1256</v>
+        <v>1239</v>
       </c>
       <c r="D123" t="s">
-        <v>1475</v>
+        <v>1440</v>
       </c>
       <c r="E123">
         <v>24</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -13350,16 +13565,19 @@
         <v>1037</v>
       </c>
       <c r="C124" t="s">
-        <v>1257</v>
+        <v>1240</v>
       </c>
       <c r="D124" t="s">
-        <v>1476</v>
+        <v>1441</v>
       </c>
       <c r="E124">
         <v>15</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -13367,16 +13585,19 @@
         <v>919</v>
       </c>
       <c r="C125" t="s">
-        <v>1139</v>
+        <v>1122</v>
       </c>
       <c r="D125" t="s">
-        <v>1477</v>
+        <v>1442</v>
       </c>
       <c r="E125">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -13384,16 +13605,19 @@
         <v>1038</v>
       </c>
       <c r="C126" t="s">
-        <v>1258</v>
+        <v>1241</v>
       </c>
       <c r="D126" t="s">
-        <v>1478</v>
+        <v>1443</v>
       </c>
       <c r="E126">
         <v>13</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -13401,16 +13625,19 @@
         <v>1039</v>
       </c>
       <c r="C127" t="s">
-        <v>1259</v>
+        <v>1242</v>
       </c>
       <c r="D127" t="s">
-        <v>1479</v>
+        <v>1444</v>
       </c>
       <c r="E127">
         <v>14</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -13418,16 +13645,19 @@
         <v>1040</v>
       </c>
       <c r="C128" t="s">
-        <v>1260</v>
+        <v>1243</v>
       </c>
       <c r="D128" t="s">
-        <v>1480</v>
+        <v>1445</v>
       </c>
       <c r="E128">
         <v>21</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -13435,16 +13665,19 @@
         <v>1041</v>
       </c>
       <c r="C129" t="s">
-        <v>1261</v>
+        <v>1244</v>
       </c>
       <c r="D129" t="s">
-        <v>1481</v>
+        <v>1446</v>
       </c>
       <c r="E129">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -13452,16 +13685,19 @@
         <v>1042</v>
       </c>
       <c r="C130" t="s">
-        <v>1262</v>
+        <v>1245</v>
       </c>
       <c r="D130" t="s">
-        <v>1482</v>
+        <v>1447</v>
       </c>
       <c r="E130">
         <v>20</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -13469,16 +13705,19 @@
         <v>1043</v>
       </c>
       <c r="C131" t="s">
-        <v>1263</v>
+        <v>1246</v>
       </c>
       <c r="D131" t="s">
-        <v>1483</v>
+        <v>1448</v>
       </c>
       <c r="E131">
         <v>17</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -13486,16 +13725,19 @@
         <v>1044</v>
       </c>
       <c r="C132" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="D132" t="s">
-        <v>1484</v>
+        <v>1449</v>
       </c>
       <c r="E132">
         <v>12</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -13503,16 +13745,19 @@
         <v>1045</v>
       </c>
       <c r="C133" t="s">
-        <v>1265</v>
+        <v>1248</v>
       </c>
       <c r="D133" t="s">
-        <v>1485</v>
+        <v>1450</v>
       </c>
       <c r="E133">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -13520,16 +13765,19 @@
         <v>1046</v>
       </c>
       <c r="C134" t="s">
-        <v>1266</v>
+        <v>1249</v>
       </c>
       <c r="D134" t="s">
-        <v>1486</v>
+        <v>1451</v>
       </c>
       <c r="E134">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -13537,16 +13785,19 @@
         <v>1047</v>
       </c>
       <c r="C135" t="s">
-        <v>1267</v>
+        <v>1250</v>
       </c>
       <c r="D135" t="s">
-        <v>1487</v>
+        <v>1452</v>
       </c>
       <c r="E135">
         <v>17</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -13554,16 +13805,19 @@
         <v>1048</v>
       </c>
       <c r="C136" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="D136" t="s">
-        <v>1488</v>
+        <v>1453</v>
       </c>
       <c r="E136">
         <v>12</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -13571,16 +13825,19 @@
         <v>1049</v>
       </c>
       <c r="C137" t="s">
-        <v>1269</v>
+        <v>1252</v>
       </c>
       <c r="D137" t="s">
-        <v>1489</v>
+        <v>1454</v>
       </c>
       <c r="E137">
         <v>27</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -13588,16 +13845,19 @@
         <v>1050</v>
       </c>
       <c r="C138" t="s">
-        <v>1270</v>
+        <v>1253</v>
       </c>
       <c r="D138" t="s">
-        <v>1490</v>
+        <v>1455</v>
       </c>
       <c r="E138">
         <v>27</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -13605,16 +13865,19 @@
         <v>1051</v>
       </c>
       <c r="C139" t="s">
-        <v>1271</v>
+        <v>1254</v>
       </c>
       <c r="D139" t="s">
-        <v>1491</v>
+        <v>1456</v>
       </c>
       <c r="E139">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -13622,16 +13885,19 @@
         <v>1052</v>
       </c>
       <c r="C140" t="s">
-        <v>1272</v>
+        <v>1255</v>
       </c>
       <c r="D140" t="s">
-        <v>1492</v>
+        <v>1457</v>
       </c>
       <c r="E140">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -13639,16 +13905,19 @@
         <v>1053</v>
       </c>
       <c r="C141" t="s">
-        <v>1273</v>
+        <v>1256</v>
       </c>
       <c r="D141" t="s">
-        <v>1493</v>
+        <v>1458</v>
       </c>
       <c r="E141">
         <v>25</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -13656,16 +13925,19 @@
         <v>1054</v>
       </c>
       <c r="C142" t="s">
-        <v>1274</v>
+        <v>1257</v>
       </c>
       <c r="D142" t="s">
-        <v>1494</v>
+        <v>1459</v>
       </c>
       <c r="E142">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -13673,16 +13945,19 @@
         <v>1055</v>
       </c>
       <c r="C143" t="s">
-        <v>1275</v>
+        <v>1258</v>
       </c>
       <c r="D143" t="s">
-        <v>1495</v>
+        <v>1460</v>
       </c>
       <c r="E143">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -13690,16 +13965,19 @@
         <v>1056</v>
       </c>
       <c r="C144" t="s">
-        <v>1276</v>
+        <v>1259</v>
       </c>
       <c r="D144" t="s">
-        <v>1496</v>
+        <v>1461</v>
       </c>
       <c r="E144">
         <v>23</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -13707,16 +13985,19 @@
         <v>1057</v>
       </c>
       <c r="C145" t="s">
-        <v>1277</v>
+        <v>1260</v>
       </c>
       <c r="D145" t="s">
-        <v>1497</v>
+        <v>1462</v>
       </c>
       <c r="E145">
         <v>22</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -13724,16 +14005,19 @@
         <v>1058</v>
       </c>
       <c r="C146" t="s">
-        <v>1278</v>
+        <v>1261</v>
       </c>
       <c r="D146" t="s">
-        <v>1498</v>
+        <v>1463</v>
       </c>
       <c r="E146">
         <v>7</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -13741,16 +14025,19 @@
         <v>1059</v>
       </c>
       <c r="C147" t="s">
-        <v>1279</v>
+        <v>1262</v>
       </c>
       <c r="D147" t="s">
-        <v>1499</v>
+        <v>1464</v>
       </c>
       <c r="E147">
         <v>16</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -13758,16 +14045,19 @@
         <v>1060</v>
       </c>
       <c r="C148" t="s">
-        <v>1280</v>
+        <v>1263</v>
       </c>
       <c r="D148" t="s">
-        <v>1500</v>
+        <v>1465</v>
       </c>
       <c r="E148">
         <v>28</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -13775,16 +14065,19 @@
         <v>1061</v>
       </c>
       <c r="C149" t="s">
-        <v>1281</v>
+        <v>1264</v>
       </c>
       <c r="D149" t="s">
-        <v>1501</v>
+        <v>1466</v>
       </c>
       <c r="E149">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -13792,16 +14085,19 @@
         <v>1062</v>
       </c>
       <c r="C150" t="s">
-        <v>1282</v>
+        <v>1265</v>
       </c>
       <c r="D150" t="s">
-        <v>1502</v>
+        <v>1467</v>
       </c>
       <c r="E150">
         <v>17</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -13809,16 +14105,19 @@
         <v>1063</v>
       </c>
       <c r="C151" t="s">
-        <v>1283</v>
+        <v>1266</v>
       </c>
       <c r="D151" t="s">
-        <v>1503</v>
+        <v>1468</v>
       </c>
       <c r="E151">
         <v>15</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -13826,16 +14125,19 @@
         <v>1064</v>
       </c>
       <c r="C152" t="s">
-        <v>1284</v>
+        <v>1267</v>
       </c>
       <c r="D152" t="s">
-        <v>1504</v>
+        <v>1469</v>
       </c>
       <c r="E152">
         <v>27</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -13843,16 +14145,19 @@
         <v>1065</v>
       </c>
       <c r="C153" t="s">
-        <v>1285</v>
+        <v>1268</v>
       </c>
       <c r="D153" t="s">
-        <v>1505</v>
+        <v>1470</v>
       </c>
       <c r="E153">
         <v>25</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -13860,16 +14165,19 @@
         <v>1066</v>
       </c>
       <c r="C154" t="s">
-        <v>1286</v>
+        <v>1269</v>
       </c>
       <c r="D154" t="s">
-        <v>1506</v>
+        <v>1471</v>
       </c>
       <c r="E154">
         <v>20</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -13877,16 +14185,19 @@
         <v>1067</v>
       </c>
       <c r="C155" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="D155" t="s">
-        <v>1507</v>
+        <v>1472</v>
       </c>
       <c r="E155">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -13894,16 +14205,19 @@
         <v>1068</v>
       </c>
       <c r="C156" t="s">
-        <v>1288</v>
+        <v>1271</v>
       </c>
       <c r="D156" t="s">
-        <v>1508</v>
+        <v>1473</v>
       </c>
       <c r="E156">
         <v>9</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -13911,16 +14225,19 @@
         <v>1069</v>
       </c>
       <c r="C157" t="s">
-        <v>1289</v>
+        <v>1272</v>
       </c>
       <c r="D157" t="s">
-        <v>1509</v>
+        <v>1474</v>
       </c>
       <c r="E157">
         <v>27</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -13928,16 +14245,19 @@
         <v>1070</v>
       </c>
       <c r="C158" t="s">
-        <v>1290</v>
+        <v>1273</v>
       </c>
       <c r="D158" t="s">
-        <v>1510</v>
+        <v>1475</v>
       </c>
       <c r="E158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -13945,7 +14265,7 @@
         <v>1071</v>
       </c>
       <c r="C159" t="s">
-        <v>1291</v>
+        <v>1274</v>
       </c>
       <c r="D159" t="s">
         <v>914</v>
@@ -13953,8 +14273,11 @@
       <c r="E159">
         <v>19</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -13962,16 +14285,19 @@
         <v>1072</v>
       </c>
       <c r="C160" t="s">
-        <v>1292</v>
+        <v>1275</v>
       </c>
       <c r="D160" t="s">
-        <v>1511</v>
+        <v>1476</v>
       </c>
       <c r="E160">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -13979,16 +14305,19 @@
         <v>1073</v>
       </c>
       <c r="C161" t="s">
-        <v>1293</v>
+        <v>1276</v>
       </c>
       <c r="D161" t="s">
-        <v>1512</v>
+        <v>1477</v>
       </c>
       <c r="E161">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -13996,16 +14325,19 @@
         <v>1074</v>
       </c>
       <c r="C162" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D162" t="s">
-        <v>1513</v>
+        <v>1478</v>
       </c>
       <c r="E162">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -14013,16 +14345,19 @@
         <v>1075</v>
       </c>
       <c r="C163" t="s">
-        <v>1295</v>
+        <v>1278</v>
       </c>
       <c r="D163" t="s">
-        <v>1514</v>
+        <v>1479</v>
       </c>
       <c r="E163">
         <v>9</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -14030,16 +14365,19 @@
         <v>1076</v>
       </c>
       <c r="C164" t="s">
-        <v>1296</v>
+        <v>1279</v>
       </c>
       <c r="D164" t="s">
-        <v>1515</v>
+        <v>1480</v>
       </c>
       <c r="E164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -14047,16 +14385,19 @@
         <v>1077</v>
       </c>
       <c r="C165" t="s">
-        <v>1297</v>
+        <v>1280</v>
       </c>
       <c r="D165" t="s">
-        <v>1516</v>
+        <v>1481</v>
       </c>
       <c r="E165">
         <v>6</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -14064,16 +14405,19 @@
         <v>1078</v>
       </c>
       <c r="C166" t="s">
-        <v>1298</v>
+        <v>1281</v>
       </c>
       <c r="D166" t="s">
-        <v>1517</v>
+        <v>1482</v>
       </c>
       <c r="E166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -14081,16 +14425,19 @@
         <v>982</v>
       </c>
       <c r="C167" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
       <c r="D167" t="s">
-        <v>1518</v>
+        <v>1483</v>
       </c>
       <c r="E167">
         <v>25</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -14098,16 +14445,19 @@
         <v>1079</v>
       </c>
       <c r="C168" t="s">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="D168" t="s">
-        <v>1519</v>
+        <v>1484</v>
       </c>
       <c r="E168">
         <v>10</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -14115,16 +14465,19 @@
         <v>1080</v>
       </c>
       <c r="C169" t="s">
-        <v>1300</v>
+        <v>1283</v>
       </c>
       <c r="D169" t="s">
-        <v>1520</v>
+        <v>1485</v>
       </c>
       <c r="E169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -14132,16 +14485,19 @@
         <v>1081</v>
       </c>
       <c r="C170" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="D170" t="s">
-        <v>1521</v>
+        <v>1486</v>
       </c>
       <c r="E170">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -14149,16 +14505,19 @@
         <v>1082</v>
       </c>
       <c r="C171" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="D171" t="s">
-        <v>1522</v>
+        <v>1487</v>
       </c>
       <c r="E171">
         <v>14</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -14166,16 +14525,19 @@
         <v>1083</v>
       </c>
       <c r="C172" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="D172" t="s">
-        <v>1523</v>
+        <v>1488</v>
       </c>
       <c r="E172">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -14183,16 +14545,19 @@
         <v>1084</v>
       </c>
       <c r="C173" t="s">
-        <v>1304</v>
+        <v>1287</v>
       </c>
       <c r="D173" t="s">
-        <v>1524</v>
+        <v>1489</v>
       </c>
       <c r="E173">
         <v>24</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -14200,16 +14565,19 @@
         <v>1085</v>
       </c>
       <c r="C174" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="D174" t="s">
-        <v>1525</v>
+        <v>1490</v>
       </c>
       <c r="E174">
         <v>25</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -14217,16 +14585,19 @@
         <v>1086</v>
       </c>
       <c r="C175" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="D175" t="s">
-        <v>1526</v>
+        <v>1491</v>
       </c>
       <c r="E175">
         <v>22</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -14234,7 +14605,7 @@
         <v>1087</v>
       </c>
       <c r="C176" t="s">
-        <v>1307</v>
+        <v>1290</v>
       </c>
       <c r="D176" t="s">
         <v>841</v>
@@ -14242,8 +14613,11 @@
       <c r="E176">
         <v>22</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -14251,16 +14625,19 @@
         <v>1088</v>
       </c>
       <c r="C177" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="D177" t="s">
-        <v>1527</v>
+        <v>1492</v>
       </c>
       <c r="E177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -14268,16 +14645,19 @@
         <v>1089</v>
       </c>
       <c r="C178" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="D178" t="s">
-        <v>1528</v>
+        <v>1493</v>
       </c>
       <c r="E178">
         <v>20</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -14285,16 +14665,19 @@
         <v>1090</v>
       </c>
       <c r="C179" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="D179" t="s">
-        <v>1529</v>
+        <v>1494</v>
       </c>
       <c r="E179">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -14302,16 +14685,19 @@
         <v>1091</v>
       </c>
       <c r="C180" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="D180" t="s">
-        <v>1530</v>
+        <v>1495</v>
       </c>
       <c r="E180">
         <v>14</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -14319,16 +14705,19 @@
         <v>1092</v>
       </c>
       <c r="C181" t="s">
-        <v>1312</v>
+        <v>1295</v>
       </c>
       <c r="D181" t="s">
-        <v>1531</v>
+        <v>1496</v>
       </c>
       <c r="E181">
         <v>17</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -14336,16 +14725,19 @@
         <v>1093</v>
       </c>
       <c r="C182" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="D182" t="s">
-        <v>1532</v>
+        <v>1497</v>
       </c>
       <c r="E182">
         <v>25</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -14353,16 +14745,19 @@
         <v>1094</v>
       </c>
       <c r="C183" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="D183" t="s">
-        <v>1533</v>
+        <v>1498</v>
       </c>
       <c r="E183">
         <v>9</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -14370,16 +14765,19 @@
         <v>1095</v>
       </c>
       <c r="C184" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="D184" t="s">
-        <v>1534</v>
+        <v>1499</v>
       </c>
       <c r="E184">
         <v>23</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -14387,16 +14785,19 @@
         <v>1096</v>
       </c>
       <c r="C185" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="D185" t="s">
-        <v>1535</v>
+        <v>1500</v>
       </c>
       <c r="E185">
         <v>10</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -14404,16 +14805,19 @@
         <v>1097</v>
       </c>
       <c r="C186" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="D186" t="s">
-        <v>1536</v>
+        <v>1501</v>
       </c>
       <c r="E186">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -14421,16 +14825,19 @@
         <v>1098</v>
       </c>
       <c r="C187" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="D187" t="s">
-        <v>1537</v>
+        <v>1502</v>
       </c>
       <c r="E187">
         <v>18</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -14438,16 +14845,19 @@
         <v>1099</v>
       </c>
       <c r="C188" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="D188" t="s">
-        <v>1538</v>
+        <v>1503</v>
       </c>
       <c r="E188">
         <v>23</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>6</v>
       </c>
@@ -14455,16 +14865,19 @@
         <v>1100</v>
       </c>
       <c r="C189" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="D189" t="s">
-        <v>1539</v>
+        <v>1504</v>
       </c>
       <c r="E189">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>6</v>
       </c>
@@ -14472,16 +14885,19 @@
         <v>1101</v>
       </c>
       <c r="C190" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="D190" t="s">
-        <v>1540</v>
+        <v>1505</v>
       </c>
       <c r="E190">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>6</v>
       </c>
@@ -14489,16 +14905,19 @@
         <v>1102</v>
       </c>
       <c r="C191" t="s">
-        <v>1322</v>
+        <v>1305</v>
       </c>
       <c r="D191" t="s">
-        <v>1541</v>
+        <v>1506</v>
       </c>
       <c r="E191">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -14506,16 +14925,19 @@
         <v>1103</v>
       </c>
       <c r="C192" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
       <c r="D192" t="s">
-        <v>1542</v>
+        <v>1507</v>
       </c>
       <c r="E192">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -14523,16 +14945,19 @@
         <v>1104</v>
       </c>
       <c r="C193" t="s">
-        <v>1324</v>
+        <v>1307</v>
       </c>
       <c r="D193" t="s">
-        <v>1543</v>
+        <v>1508</v>
       </c>
       <c r="E193">
         <v>22</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>6</v>
       </c>
@@ -14540,16 +14965,19 @@
         <v>1105</v>
       </c>
       <c r="C194" t="s">
-        <v>1325</v>
+        <v>1308</v>
       </c>
       <c r="D194" t="s">
-        <v>1544</v>
+        <v>1509</v>
       </c>
       <c r="E194">
         <v>18</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>6</v>
       </c>
@@ -14557,16 +14985,19 @@
         <v>1106</v>
       </c>
       <c r="C195" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="D195" t="s">
-        <v>1545</v>
+        <v>1510</v>
       </c>
       <c r="E195">
         <v>16</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -14574,16 +15005,19 @@
         <v>1107</v>
       </c>
       <c r="C196" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="D196" t="s">
-        <v>1546</v>
+        <v>1511</v>
       </c>
       <c r="E196">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>6</v>
       </c>
@@ -14591,7 +15025,7 @@
         <v>1108</v>
       </c>
       <c r="C197" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="D197" t="s">
         <v>719</v>
@@ -14599,8 +15033,11 @@
       <c r="E197">
         <v>11</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -14608,16 +15045,19 @@
         <v>1109</v>
       </c>
       <c r="C198" t="s">
-        <v>1329</v>
+        <v>1312</v>
       </c>
       <c r="D198" t="s">
-        <v>1547</v>
+        <v>1512</v>
       </c>
       <c r="E198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -14625,16 +15065,19 @@
         <v>1110</v>
       </c>
       <c r="C199" t="s">
-        <v>1330</v>
+        <v>1313</v>
       </c>
       <c r="D199" t="s">
-        <v>1548</v>
+        <v>1513</v>
       </c>
       <c r="E199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -14642,16 +15085,19 @@
         <v>1111</v>
       </c>
       <c r="C200" t="s">
-        <v>1331</v>
+        <v>1314</v>
       </c>
       <c r="D200" t="s">
-        <v>1549</v>
+        <v>1514</v>
       </c>
       <c r="E200">
         <v>20</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -14659,16 +15105,19 @@
         <v>1112</v>
       </c>
       <c r="C201" t="s">
-        <v>1332</v>
+        <v>1315</v>
       </c>
       <c r="D201" t="s">
-        <v>1550</v>
+        <v>1515</v>
       </c>
       <c r="E201">
         <v>12</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -14676,16 +15125,19 @@
         <v>1113</v>
       </c>
       <c r="C202" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
       <c r="D202" t="s">
-        <v>1551</v>
+        <v>1516</v>
       </c>
       <c r="E202">
         <v>10</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>6</v>
       </c>
@@ -14693,16 +15145,19 @@
         <v>1114</v>
       </c>
       <c r="C203" t="s">
-        <v>1334</v>
+        <v>1317</v>
       </c>
       <c r="D203" t="s">
-        <v>1552</v>
+        <v>1517</v>
       </c>
       <c r="E203">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -14710,16 +15165,19 @@
         <v>1115</v>
       </c>
       <c r="C204" t="s">
-        <v>1335</v>
+        <v>1318</v>
       </c>
       <c r="D204" t="s">
-        <v>1553</v>
+        <v>1518</v>
       </c>
       <c r="E204">
         <v>15</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -14727,16 +15185,19 @@
         <v>1116</v>
       </c>
       <c r="C205" t="s">
-        <v>1336</v>
+        <v>1319</v>
       </c>
       <c r="D205" t="s">
-        <v>1554</v>
+        <v>1519</v>
       </c>
       <c r="E205">
         <v>22</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>6</v>
       </c>
@@ -14744,335 +15205,15 @@
         <v>1117</v>
       </c>
       <c r="C206" t="s">
-        <v>1337</v>
+        <v>1320</v>
       </c>
       <c r="D206" t="s">
-        <v>1555</v>
+        <v>1520</v>
       </c>
       <c r="E206">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>6</v>
-      </c>
-      <c r="B207" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D207" t="s">
-        <v>668</v>
-      </c>
-      <c r="E207">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208" t="s">
-        <v>244</v>
-      </c>
-      <c r="C208" t="s">
-        <v>547</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1556</v>
-      </c>
-      <c r="E208">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C209" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D209" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E209">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D210" t="s">
-        <v>1558</v>
-      </c>
-      <c r="E210">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>6</v>
-      </c>
-      <c r="B211" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C211" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D211" t="s">
-        <v>1559</v>
-      </c>
-      <c r="E211">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>6</v>
-      </c>
-      <c r="B212" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C212" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D212" t="s">
-        <v>1560</v>
-      </c>
-      <c r="E212">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>6</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C213" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D213" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E213">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>6</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C214" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D214" t="s">
-        <v>1562</v>
-      </c>
-      <c r="E214">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>6</v>
-      </c>
-      <c r="B215" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C215" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D215" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>6</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C216" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D216" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E216">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>6</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C217" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D217" t="s">
-        <v>1565</v>
-      </c>
-      <c r="E217">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>6</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C218" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D218" t="s">
-        <v>1566</v>
-      </c>
-      <c r="E218">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>6</v>
-      </c>
-      <c r="B219" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C219" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D219" t="s">
-        <v>1567</v>
-      </c>
-      <c r="E219">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>6</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C220" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D220" t="s">
-        <v>1568</v>
-      </c>
-      <c r="E220">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C221" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D221" t="s">
-        <v>1569</v>
-      </c>
-      <c r="E221">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>6</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C222" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D222" t="s">
-        <v>1570</v>
-      </c>
-      <c r="E222">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>6</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C223" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D223" t="s">
-        <v>1497</v>
-      </c>
-      <c r="E223">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>6</v>
-      </c>
-      <c r="B224" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C224" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D224" t="s">
-        <v>1571</v>
-      </c>
-      <c r="E224">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>6</v>
-      </c>
-      <c r="B225" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C225" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D225" t="s">
-        <v>1572</v>
-      </c>
-      <c r="E225">
+      <c r="F206">
         <v>2</v>
       </c>
     </row>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\CDados\22-2a-cd-p1-grupo_brunosl2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D6D022-346F-4E8F-99DB-BD9161355CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB18BAB8-ADF6-411A-BDD8-76046267053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -4642,12 +4642,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4988,8 +4987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="143" workbookViewId="0">
-      <selection activeCell="F309" sqref="F309"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="111" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5115,7 +5114,7 @@
         <v>28</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5235,7 +5234,7 @@
         <v>19</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5255,7 +5254,7 @@
         <v>28</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5295,7 +5294,7 @@
         <v>27</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -5314,7 +5313,7 @@
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>2</v>
       </c>
     </row>
@@ -5334,7 +5333,7 @@
       <c r="E17">
         <v>18</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
@@ -5354,8 +5353,8 @@
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" s="2">
-        <v>0</v>
+      <c r="F18">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -5374,7 +5373,7 @@
       <c r="E19">
         <v>22</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>1</v>
       </c>
     </row>
@@ -5394,7 +5393,7 @@
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
@@ -5414,8 +5413,8 @@
       <c r="E21">
         <v>18</v>
       </c>
-      <c r="F21" s="2">
-        <v>0</v>
+      <c r="F21">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5434,7 +5433,7 @@
       <c r="E22">
         <v>20</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>2</v>
       </c>
     </row>
@@ -5454,7 +5453,7 @@
       <c r="E23">
         <v>27</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>2</v>
       </c>
     </row>
@@ -5474,7 +5473,7 @@
       <c r="E24">
         <v>23</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <v>2</v>
       </c>
     </row>
@@ -5494,7 +5493,7 @@
       <c r="E25">
         <v>23</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>1</v>
       </c>
     </row>
@@ -5514,7 +5513,7 @@
       <c r="E26">
         <v>11</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <v>1</v>
       </c>
     </row>
@@ -5534,7 +5533,7 @@
       <c r="E27">
         <v>16</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <v>2</v>
       </c>
     </row>
@@ -5554,7 +5553,7 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28">
         <v>2</v>
       </c>
     </row>
@@ -5574,7 +5573,7 @@
       <c r="E29">
         <v>15</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
         <v>1</v>
       </c>
     </row>
@@ -5594,7 +5593,7 @@
       <c r="E30">
         <v>21</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
         <v>2</v>
       </c>
     </row>
@@ -5614,7 +5613,7 @@
       <c r="E31">
         <v>4</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31">
         <v>1</v>
       </c>
     </row>
@@ -5634,7 +5633,7 @@
       <c r="E32">
         <v>22</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32">
         <v>1</v>
       </c>
     </row>
@@ -5654,7 +5653,7 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <v>1</v>
       </c>
     </row>
@@ -5674,7 +5673,7 @@
       <c r="E34">
         <v>8</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34">
         <v>2</v>
       </c>
     </row>
@@ -5694,7 +5693,7 @@
       <c r="E35">
         <v>13</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
         <v>2</v>
       </c>
     </row>
@@ -5714,7 +5713,7 @@
       <c r="E36">
         <v>14</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36">
         <v>1</v>
       </c>
     </row>
@@ -5734,7 +5733,7 @@
       <c r="E37">
         <v>15</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37">
         <v>1</v>
       </c>
     </row>
@@ -5754,7 +5753,7 @@
       <c r="E38">
         <v>10</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38">
         <v>2</v>
       </c>
     </row>
@@ -5774,7 +5773,7 @@
       <c r="E39">
         <v>21</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39">
         <v>1</v>
       </c>
     </row>
@@ -5794,7 +5793,7 @@
       <c r="E40">
         <v>10</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40">
         <v>1</v>
       </c>
     </row>
@@ -5814,7 +5813,7 @@
       <c r="E41">
         <v>14</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41">
         <v>2</v>
       </c>
     </row>
@@ -5834,7 +5833,7 @@
       <c r="E42">
         <v>28</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42">
         <v>2</v>
       </c>
     </row>
@@ -5854,8 +5853,8 @@
       <c r="E43">
         <v>22</v>
       </c>
-      <c r="F43" s="2">
-        <v>0</v>
+      <c r="F43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -5874,8 +5873,8 @@
       <c r="E44">
         <v>13</v>
       </c>
-      <c r="F44" s="2">
-        <v>0</v>
+      <c r="F44">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -5894,7 +5893,7 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45">
         <v>2</v>
       </c>
     </row>
@@ -5914,7 +5913,7 @@
       <c r="E46">
         <v>20</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46">
         <v>2</v>
       </c>
     </row>
@@ -5934,7 +5933,7 @@
       <c r="E47">
         <v>3</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47">
         <v>1</v>
       </c>
     </row>
@@ -5954,7 +5953,7 @@
       <c r="E48">
         <v>10</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48">
         <v>1</v>
       </c>
     </row>
@@ -5974,7 +5973,7 @@
       <c r="E49">
         <v>28</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49">
         <v>1</v>
       </c>
     </row>
@@ -5994,8 +5993,8 @@
       <c r="E50">
         <v>4</v>
       </c>
-      <c r="F50" s="2">
-        <v>0</v>
+      <c r="F50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -6014,7 +6013,7 @@
       <c r="E51">
         <v>23</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51">
         <v>2</v>
       </c>
     </row>
@@ -6034,8 +6033,8 @@
       <c r="E52">
         <v>6</v>
       </c>
-      <c r="F52" s="2">
-        <v>0</v>
+      <c r="F52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -6054,7 +6053,7 @@
       <c r="E53">
         <v>9</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53">
         <v>1</v>
       </c>
     </row>
@@ -6074,8 +6073,8 @@
       <c r="E54">
         <v>27</v>
       </c>
-      <c r="F54" s="2">
-        <v>0</v>
+      <c r="F54">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -6094,8 +6093,8 @@
       <c r="E55">
         <v>15</v>
       </c>
-      <c r="F55" s="2">
-        <v>0</v>
+      <c r="F55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -6114,7 +6113,7 @@
       <c r="E56">
         <v>25</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56">
         <v>1</v>
       </c>
     </row>
@@ -6134,7 +6133,7 @@
       <c r="E57">
         <v>13</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57">
         <v>1</v>
       </c>
     </row>
@@ -6154,8 +6153,8 @@
       <c r="E58">
         <v>23</v>
       </c>
-      <c r="F58" s="2">
-        <v>0</v>
+      <c r="F58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -6174,7 +6173,7 @@
       <c r="E59">
         <v>8</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59">
         <v>1</v>
       </c>
     </row>
@@ -6194,8 +6193,8 @@
       <c r="E60">
         <v>9</v>
       </c>
-      <c r="F60" s="2">
-        <v>0</v>
+      <c r="F60">
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -6214,7 +6213,7 @@
       <c r="E61">
         <v>13</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61">
         <v>1</v>
       </c>
     </row>
@@ -6234,7 +6233,7 @@
       <c r="E62">
         <v>23</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62">
         <v>1</v>
       </c>
     </row>
@@ -6254,7 +6253,7 @@
       <c r="E63">
         <v>13</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63">
         <v>2</v>
       </c>
     </row>
@@ -6274,7 +6273,7 @@
       <c r="E64">
         <v>24</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64">
         <v>1</v>
       </c>
     </row>
@@ -6294,7 +6293,7 @@
       <c r="E65">
         <v>16</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65">
         <v>2</v>
       </c>
     </row>
@@ -6314,8 +6313,8 @@
       <c r="E66">
         <v>18</v>
       </c>
-      <c r="F66" s="2">
-        <v>0</v>
+      <c r="F66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -6334,7 +6333,7 @@
       <c r="E67">
         <v>7</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67">
         <v>1</v>
       </c>
     </row>
@@ -6354,7 +6353,7 @@
       <c r="E68">
         <v>12</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68">
         <v>1</v>
       </c>
     </row>
@@ -6374,7 +6373,7 @@
       <c r="E69">
         <v>12</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69">
         <v>2</v>
       </c>
     </row>
@@ -6394,7 +6393,7 @@
       <c r="E70">
         <v>24</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70">
         <v>2</v>
       </c>
     </row>
@@ -6414,7 +6413,7 @@
       <c r="E71">
         <v>11</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71">
         <v>2</v>
       </c>
     </row>
@@ -6434,7 +6433,7 @@
       <c r="E72">
         <v>17</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72">
         <v>2</v>
       </c>
     </row>
@@ -6454,7 +6453,7 @@
       <c r="E73">
         <v>11</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73">
         <v>2</v>
       </c>
     </row>
@@ -6474,7 +6473,7 @@
       <c r="E74">
         <v>11</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74">
         <v>1</v>
       </c>
     </row>
@@ -6494,7 +6493,7 @@
       <c r="E75">
         <v>26</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75">
         <v>2</v>
       </c>
     </row>
@@ -6514,7 +6513,7 @@
       <c r="E76">
         <v>17</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76">
         <v>1</v>
       </c>
     </row>
@@ -6534,7 +6533,7 @@
       <c r="E77">
         <v>14</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77">
         <v>1</v>
       </c>
     </row>
@@ -6554,8 +6553,8 @@
       <c r="E78">
         <v>13</v>
       </c>
-      <c r="F78" s="2">
-        <v>0</v>
+      <c r="F78">
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -6574,7 +6573,7 @@
       <c r="E79">
         <v>6</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79">
         <v>2</v>
       </c>
     </row>
@@ -6594,7 +6593,7 @@
       <c r="E80">
         <v>6</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80">
         <v>1</v>
       </c>
     </row>
@@ -6614,8 +6613,8 @@
       <c r="E81">
         <v>21</v>
       </c>
-      <c r="F81" s="2">
-        <v>0</v>
+      <c r="F81">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -6634,8 +6633,8 @@
       <c r="E82">
         <v>16</v>
       </c>
-      <c r="F82" s="2">
-        <v>0</v>
+      <c r="F82">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -6654,7 +6653,7 @@
       <c r="E83">
         <v>16</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83">
         <v>2</v>
       </c>
     </row>
@@ -6674,8 +6673,8 @@
       <c r="E84">
         <v>20</v>
       </c>
-      <c r="F84" s="2">
-        <v>0</v>
+      <c r="F84">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -6694,7 +6693,7 @@
       <c r="E85">
         <v>28</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85">
         <v>2</v>
       </c>
     </row>
@@ -6714,7 +6713,7 @@
       <c r="E86">
         <v>1</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86">
         <v>2</v>
       </c>
     </row>
@@ -6734,7 +6733,7 @@
       <c r="E87">
         <v>4</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87">
         <v>2</v>
       </c>
     </row>
@@ -6754,7 +6753,7 @@
       <c r="E88">
         <v>22</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88">
         <v>1</v>
       </c>
     </row>
@@ -6774,8 +6773,8 @@
       <c r="E89">
         <v>15</v>
       </c>
-      <c r="F89" s="2">
-        <v>0</v>
+      <c r="F89">
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -6794,8 +6793,8 @@
       <c r="E90">
         <v>14</v>
       </c>
-      <c r="F90" s="2">
-        <v>0</v>
+      <c r="F90">
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -6814,8 +6813,8 @@
       <c r="E91">
         <v>17</v>
       </c>
-      <c r="F91" s="2">
-        <v>0</v>
+      <c r="F91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -6834,7 +6833,7 @@
       <c r="E92">
         <v>26</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92">
         <v>1</v>
       </c>
     </row>
@@ -6854,8 +6853,8 @@
       <c r="E93">
         <v>26</v>
       </c>
-      <c r="F93" s="2">
-        <v>0</v>
+      <c r="F93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -6874,8 +6873,8 @@
       <c r="E94">
         <v>10</v>
       </c>
-      <c r="F94" s="2">
-        <v>0</v>
+      <c r="F94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -6894,8 +6893,8 @@
       <c r="E95">
         <v>5</v>
       </c>
-      <c r="F95" s="2">
-        <v>0</v>
+      <c r="F95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -6914,8 +6913,8 @@
       <c r="E96">
         <v>18</v>
       </c>
-      <c r="F96" s="2">
-        <v>0</v>
+      <c r="F96">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -6934,8 +6933,8 @@
       <c r="E97">
         <v>15</v>
       </c>
-      <c r="F97" s="2">
-        <v>0</v>
+      <c r="F97">
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -6954,7 +6953,7 @@
       <c r="E98">
         <v>21</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98">
         <v>1</v>
       </c>
     </row>
@@ -6974,8 +6973,8 @@
       <c r="E99">
         <v>24</v>
       </c>
-      <c r="F99" s="2">
-        <v>0</v>
+      <c r="F99">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -6994,7 +6993,7 @@
       <c r="E100">
         <v>19</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100">
         <v>2</v>
       </c>
     </row>
@@ -7014,7 +7013,7 @@
       <c r="E101">
         <v>8</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101">
         <v>1</v>
       </c>
     </row>
@@ -7034,7 +7033,7 @@
       <c r="E102">
         <v>23</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102">
         <v>2</v>
       </c>
     </row>
@@ -7054,8 +7053,8 @@
       <c r="E103">
         <v>14</v>
       </c>
-      <c r="F103" s="2">
-        <v>0</v>
+      <c r="F103">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -7074,7 +7073,7 @@
       <c r="E104">
         <v>9</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104">
         <v>1</v>
       </c>
     </row>
@@ -7094,8 +7093,8 @@
       <c r="E105">
         <v>20</v>
       </c>
-      <c r="F105" s="2">
-        <v>0</v>
+      <c r="F105">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -7114,8 +7113,8 @@
       <c r="E106">
         <v>19</v>
       </c>
-      <c r="F106" s="2">
-        <v>0</v>
+      <c r="F106">
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -7134,8 +7133,8 @@
       <c r="E107">
         <v>4</v>
       </c>
-      <c r="F107" s="2">
-        <v>0</v>
+      <c r="F107">
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -7154,8 +7153,8 @@
       <c r="E108">
         <v>11</v>
       </c>
-      <c r="F108" s="2">
-        <v>0</v>
+      <c r="F108">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -7174,7 +7173,7 @@
       <c r="E109">
         <v>2</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109">
         <v>2</v>
       </c>
     </row>
@@ -7194,7 +7193,7 @@
       <c r="E110">
         <v>19</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110">
         <v>2</v>
       </c>
     </row>
@@ -7214,8 +7213,8 @@
       <c r="E111">
         <v>11</v>
       </c>
-      <c r="F111" s="2">
-        <v>0</v>
+      <c r="F111">
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -7234,7 +7233,7 @@
       <c r="E112">
         <v>21</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112">
         <v>2</v>
       </c>
     </row>
@@ -7254,8 +7253,8 @@
       <c r="E113">
         <v>1</v>
       </c>
-      <c r="F113" s="2">
-        <v>0</v>
+      <c r="F113">
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -7274,7 +7273,7 @@
       <c r="E114">
         <v>13</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114">
         <v>1</v>
       </c>
     </row>
@@ -7294,7 +7293,7 @@
       <c r="E115">
         <v>19</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115">
         <v>1</v>
       </c>
     </row>
@@ -7314,7 +7313,7 @@
       <c r="E116">
         <v>12</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116">
         <v>2</v>
       </c>
     </row>
@@ -7334,7 +7333,7 @@
       <c r="E117">
         <v>9</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117">
         <v>2</v>
       </c>
     </row>
@@ -7354,7 +7353,7 @@
       <c r="E118">
         <v>5</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118">
         <v>1</v>
       </c>
     </row>
@@ -7374,7 +7373,7 @@
       <c r="E119">
         <v>10</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119">
         <v>2</v>
       </c>
     </row>
@@ -7394,7 +7393,7 @@
       <c r="E120">
         <v>28</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120">
         <v>2</v>
       </c>
     </row>
@@ -7414,7 +7413,7 @@
       <c r="E121">
         <v>12</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121">
         <v>2</v>
       </c>
     </row>
@@ -7434,7 +7433,7 @@
       <c r="E122">
         <v>24</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122">
         <v>2</v>
       </c>
     </row>
@@ -7454,7 +7453,7 @@
       <c r="E123">
         <v>8</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123">
         <v>1</v>
       </c>
     </row>
@@ -7474,7 +7473,7 @@
       <c r="E124">
         <v>14</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124">
         <v>1</v>
       </c>
     </row>
@@ -7494,7 +7493,7 @@
       <c r="E125">
         <v>26</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125">
         <v>1</v>
       </c>
     </row>
@@ -7514,7 +7513,7 @@
       <c r="E126">
         <v>17</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126">
         <v>1</v>
       </c>
     </row>
@@ -7534,8 +7533,8 @@
       <c r="E127">
         <v>9</v>
       </c>
-      <c r="F127" s="2">
-        <v>0</v>
+      <c r="F127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -7554,7 +7553,7 @@
       <c r="E128">
         <v>19</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128">
         <v>1</v>
       </c>
     </row>
@@ -7574,7 +7573,7 @@
       <c r="E129">
         <v>1</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129">
         <v>1</v>
       </c>
     </row>
@@ -7594,7 +7593,7 @@
       <c r="E130">
         <v>19</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130">
         <v>1</v>
       </c>
     </row>
@@ -7614,8 +7613,8 @@
       <c r="E131">
         <v>19</v>
       </c>
-      <c r="F131" s="2">
-        <v>0</v>
+      <c r="F131">
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -7634,7 +7633,7 @@
       <c r="E132">
         <v>3</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132">
         <v>2</v>
       </c>
     </row>
@@ -7654,7 +7653,7 @@
       <c r="E133">
         <v>20</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133">
         <v>1</v>
       </c>
     </row>
@@ -7674,7 +7673,7 @@
       <c r="E134">
         <v>22</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134">
         <v>2</v>
       </c>
     </row>
@@ -7694,8 +7693,8 @@
       <c r="E135">
         <v>16</v>
       </c>
-      <c r="F135" s="2">
-        <v>0</v>
+      <c r="F135">
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -7714,7 +7713,7 @@
       <c r="E136">
         <v>25</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136">
         <v>2</v>
       </c>
     </row>
@@ -7734,7 +7733,7 @@
       <c r="E137">
         <v>8</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137">
         <v>1</v>
       </c>
     </row>
@@ -7754,8 +7753,8 @@
       <c r="E138">
         <v>28</v>
       </c>
-      <c r="F138" s="2">
-        <v>0</v>
+      <c r="F138">
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -7774,7 +7773,7 @@
       <c r="E139">
         <v>13</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139">
         <v>2</v>
       </c>
     </row>
@@ -7794,7 +7793,7 @@
       <c r="E140">
         <v>26</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F140">
         <v>1</v>
       </c>
     </row>
@@ -7814,8 +7813,8 @@
       <c r="E141">
         <v>16</v>
       </c>
-      <c r="F141" s="2">
-        <v>0</v>
+      <c r="F141">
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -7834,8 +7833,8 @@
       <c r="E142">
         <v>7</v>
       </c>
-      <c r="F142" s="2">
-        <v>0</v>
+      <c r="F142">
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -7854,7 +7853,7 @@
       <c r="E143">
         <v>18</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143">
         <v>1</v>
       </c>
     </row>
@@ -7874,7 +7873,7 @@
       <c r="E144">
         <v>19</v>
       </c>
-      <c r="F144" s="2">
+      <c r="F144">
         <v>2</v>
       </c>
     </row>
@@ -7894,7 +7893,7 @@
       <c r="E145">
         <v>20</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145">
         <v>1</v>
       </c>
     </row>
@@ -7914,7 +7913,7 @@
       <c r="E146">
         <v>5</v>
       </c>
-      <c r="F146" s="2">
+      <c r="F146">
         <v>2</v>
       </c>
     </row>
@@ -7934,7 +7933,7 @@
       <c r="E147">
         <v>5</v>
       </c>
-      <c r="F147" s="2">
+      <c r="F147">
         <v>1</v>
       </c>
     </row>
@@ -7954,8 +7953,8 @@
       <c r="E148">
         <v>13</v>
       </c>
-      <c r="F148" s="2">
-        <v>0</v>
+      <c r="F148">
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -7974,7 +7973,7 @@
       <c r="E149">
         <v>3</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149">
         <v>1</v>
       </c>
     </row>
@@ -7994,8 +7993,8 @@
       <c r="E150">
         <v>13</v>
       </c>
-      <c r="F150" s="2">
-        <v>0</v>
+      <c r="F150">
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -8014,8 +8013,8 @@
       <c r="E151">
         <v>23</v>
       </c>
-      <c r="F151" s="2">
-        <v>0</v>
+      <c r="F151">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -8034,7 +8033,7 @@
       <c r="E152">
         <v>18</v>
       </c>
-      <c r="F152" s="2">
+      <c r="F152">
         <v>2</v>
       </c>
     </row>
@@ -8054,7 +8053,7 @@
       <c r="E153">
         <v>10</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153">
         <v>1</v>
       </c>
     </row>
@@ -8074,7 +8073,7 @@
       <c r="E154">
         <v>28</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154">
         <v>2</v>
       </c>
     </row>
@@ -8094,7 +8093,7 @@
       <c r="E155">
         <v>8</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155">
         <v>2</v>
       </c>
     </row>
@@ -8114,7 +8113,7 @@
       <c r="E156">
         <v>13</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F156">
         <v>2</v>
       </c>
     </row>
@@ -8134,8 +8133,8 @@
       <c r="E157">
         <v>15</v>
       </c>
-      <c r="F157" s="2">
-        <v>0</v>
+      <c r="F157">
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -8154,7 +8153,7 @@
       <c r="E158">
         <v>27</v>
       </c>
-      <c r="F158" s="2">
+      <c r="F158">
         <v>2</v>
       </c>
     </row>
@@ -8174,7 +8173,7 @@
       <c r="E159">
         <v>16</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159">
         <v>2</v>
       </c>
     </row>
@@ -8194,7 +8193,7 @@
       <c r="E160">
         <v>15</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160">
         <v>1</v>
       </c>
     </row>
@@ -8214,8 +8213,8 @@
       <c r="E161">
         <v>21</v>
       </c>
-      <c r="F161" s="2">
-        <v>0</v>
+      <c r="F161">
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -8234,7 +8233,7 @@
       <c r="E162">
         <v>28</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162">
         <v>2</v>
       </c>
     </row>
@@ -8254,7 +8253,7 @@
       <c r="E163">
         <v>12</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F163">
         <v>2</v>
       </c>
     </row>
@@ -8274,7 +8273,7 @@
       <c r="E164">
         <v>1</v>
       </c>
-      <c r="F164" s="2">
+      <c r="F164">
         <v>1</v>
       </c>
     </row>
@@ -8294,7 +8293,7 @@
       <c r="E165">
         <v>23</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165">
         <v>2</v>
       </c>
     </row>
@@ -8314,7 +8313,7 @@
       <c r="E166">
         <v>25</v>
       </c>
-      <c r="F166" s="2">
+      <c r="F166">
         <v>2</v>
       </c>
     </row>
@@ -8334,7 +8333,7 @@
       <c r="E167">
         <v>6</v>
       </c>
-      <c r="F167" s="2">
+      <c r="F167">
         <v>2</v>
       </c>
     </row>
@@ -8354,7 +8353,7 @@
       <c r="E168">
         <v>17</v>
       </c>
-      <c r="F168" s="2">
+      <c r="F168">
         <v>1</v>
       </c>
     </row>
@@ -8374,7 +8373,7 @@
       <c r="E169">
         <v>18</v>
       </c>
-      <c r="F169" s="2">
+      <c r="F169">
         <v>2</v>
       </c>
     </row>
@@ -8394,7 +8393,7 @@
       <c r="E170">
         <v>21</v>
       </c>
-      <c r="F170" s="2">
+      <c r="F170">
         <v>1</v>
       </c>
     </row>
@@ -8414,7 +8413,7 @@
       <c r="E171">
         <v>18</v>
       </c>
-      <c r="F171" s="2">
+      <c r="F171">
         <v>2</v>
       </c>
     </row>
@@ -8434,7 +8433,7 @@
       <c r="E172">
         <v>3</v>
       </c>
-      <c r="F172" s="2">
+      <c r="F172">
         <v>2</v>
       </c>
     </row>
@@ -8454,7 +8453,7 @@
       <c r="E173">
         <v>9</v>
       </c>
-      <c r="F173" s="2">
+      <c r="F173">
         <v>2</v>
       </c>
     </row>
@@ -8474,7 +8473,7 @@
       <c r="E174">
         <v>9</v>
       </c>
-      <c r="F174" s="2">
+      <c r="F174">
         <v>2</v>
       </c>
     </row>
@@ -8494,7 +8493,7 @@
       <c r="E175">
         <v>10</v>
       </c>
-      <c r="F175" s="2">
+      <c r="F175">
         <v>1</v>
       </c>
     </row>
@@ -8514,7 +8513,7 @@
       <c r="E176">
         <v>11</v>
       </c>
-      <c r="F176" s="2">
+      <c r="F176">
         <v>2</v>
       </c>
     </row>
@@ -8534,7 +8533,7 @@
       <c r="E177">
         <v>12</v>
       </c>
-      <c r="F177" s="2">
+      <c r="F177">
         <v>2</v>
       </c>
     </row>
@@ -8554,7 +8553,7 @@
       <c r="E178">
         <v>19</v>
       </c>
-      <c r="F178" s="2">
+      <c r="F178">
         <v>2</v>
       </c>
     </row>
@@ -8574,7 +8573,7 @@
       <c r="E179">
         <v>11</v>
       </c>
-      <c r="F179" s="2">
+      <c r="F179">
         <v>2</v>
       </c>
     </row>
@@ -8594,8 +8593,8 @@
       <c r="E180">
         <v>3</v>
       </c>
-      <c r="F180" s="2">
-        <v>0</v>
+      <c r="F180">
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -8614,7 +8613,7 @@
       <c r="E181">
         <v>9</v>
       </c>
-      <c r="F181" s="2">
+      <c r="F181">
         <v>1</v>
       </c>
     </row>
@@ -8634,7 +8633,7 @@
       <c r="E182">
         <v>20</v>
       </c>
-      <c r="F182" s="2">
+      <c r="F182">
         <v>1</v>
       </c>
     </row>
@@ -8654,7 +8653,7 @@
       <c r="E183">
         <v>8</v>
       </c>
-      <c r="F183" s="2">
+      <c r="F183">
         <v>2</v>
       </c>
     </row>
@@ -8674,7 +8673,7 @@
       <c r="E184">
         <v>20</v>
       </c>
-      <c r="F184" s="2">
+      <c r="F184">
         <v>1</v>
       </c>
     </row>
@@ -8694,7 +8693,7 @@
       <c r="E185">
         <v>15</v>
       </c>
-      <c r="F185" s="2">
+      <c r="F185">
         <v>1</v>
       </c>
     </row>
@@ -8714,7 +8713,7 @@
       <c r="E186">
         <v>25</v>
       </c>
-      <c r="F186" s="2">
+      <c r="F186">
         <v>2</v>
       </c>
     </row>
@@ -8734,7 +8733,7 @@
       <c r="E187">
         <v>10</v>
       </c>
-      <c r="F187" s="2">
+      <c r="F187">
         <v>2</v>
       </c>
     </row>
@@ -8754,7 +8753,7 @@
       <c r="E188">
         <v>14</v>
       </c>
-      <c r="F188" s="2">
+      <c r="F188">
         <v>2</v>
       </c>
     </row>
@@ -8774,7 +8773,7 @@
       <c r="E189">
         <v>12</v>
       </c>
-      <c r="F189" s="2">
+      <c r="F189">
         <v>1</v>
       </c>
     </row>
@@ -8794,7 +8793,7 @@
       <c r="E190">
         <v>12</v>
       </c>
-      <c r="F190" s="2">
+      <c r="F190">
         <v>2</v>
       </c>
     </row>
@@ -8814,7 +8813,7 @@
       <c r="E191">
         <v>18</v>
       </c>
-      <c r="F191" s="2">
+      <c r="F191">
         <v>2</v>
       </c>
     </row>
@@ -8834,7 +8833,7 @@
       <c r="E192">
         <v>9</v>
       </c>
-      <c r="F192" s="2">
+      <c r="F192">
         <v>1</v>
       </c>
     </row>
@@ -8854,7 +8853,7 @@
       <c r="E193">
         <v>23</v>
       </c>
-      <c r="F193" s="2">
+      <c r="F193">
         <v>2</v>
       </c>
     </row>
@@ -8874,7 +8873,7 @@
       <c r="E194">
         <v>16</v>
       </c>
-      <c r="F194" s="2">
+      <c r="F194">
         <v>2</v>
       </c>
     </row>
@@ -8894,8 +8893,8 @@
       <c r="E195">
         <v>26</v>
       </c>
-      <c r="F195" s="2">
-        <v>0</v>
+      <c r="F195">
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -8914,8 +8913,8 @@
       <c r="E196">
         <v>26</v>
       </c>
-      <c r="F196" s="2">
-        <v>0</v>
+      <c r="F196">
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -8934,7 +8933,7 @@
       <c r="E197">
         <v>6</v>
       </c>
-      <c r="F197" s="2">
+      <c r="F197">
         <v>2</v>
       </c>
     </row>
@@ -8954,8 +8953,8 @@
       <c r="E198">
         <v>16</v>
       </c>
-      <c r="F198" s="2">
-        <v>0</v>
+      <c r="F198">
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -8974,8 +8973,8 @@
       <c r="E199">
         <v>1</v>
       </c>
-      <c r="F199" s="2">
-        <v>0</v>
+      <c r="F199">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -8994,8 +8993,8 @@
       <c r="E200">
         <v>16</v>
       </c>
-      <c r="F200" s="2">
-        <v>0</v>
+      <c r="F200">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -9014,7 +9013,7 @@
       <c r="E201">
         <v>10</v>
       </c>
-      <c r="F201" s="2">
+      <c r="F201">
         <v>1</v>
       </c>
     </row>
@@ -9034,8 +9033,8 @@
       <c r="E202">
         <v>5</v>
       </c>
-      <c r="F202" s="2">
-        <v>0</v>
+      <c r="F202">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -9054,8 +9053,8 @@
       <c r="E203">
         <v>16</v>
       </c>
-      <c r="F203" s="2">
-        <v>0</v>
+      <c r="F203">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -9074,8 +9073,8 @@
       <c r="E204">
         <v>11</v>
       </c>
-      <c r="F204" s="2">
-        <v>0</v>
+      <c r="F204">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -9094,7 +9093,7 @@
       <c r="E205">
         <v>20</v>
       </c>
-      <c r="F205" s="2">
+      <c r="F205">
         <v>2</v>
       </c>
     </row>
@@ -9114,7 +9113,7 @@
       <c r="E206">
         <v>21</v>
       </c>
-      <c r="F206" s="2">
+      <c r="F206">
         <v>2</v>
       </c>
     </row>
@@ -9134,7 +9133,7 @@
       <c r="E207">
         <v>12</v>
       </c>
-      <c r="F207" s="2">
+      <c r="F207">
         <v>2</v>
       </c>
     </row>
@@ -9154,7 +9153,7 @@
       <c r="E208">
         <v>28</v>
       </c>
-      <c r="F208" s="2">
+      <c r="F208">
         <v>1</v>
       </c>
     </row>
@@ -9174,8 +9173,8 @@
       <c r="E209">
         <v>24</v>
       </c>
-      <c r="F209" s="2">
-        <v>0</v>
+      <c r="F209">
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -9194,7 +9193,7 @@
       <c r="E210">
         <v>7</v>
       </c>
-      <c r="F210" s="2">
+      <c r="F210">
         <v>1</v>
       </c>
     </row>
@@ -9214,8 +9213,8 @@
       <c r="E211">
         <v>11</v>
       </c>
-      <c r="F211" s="2">
-        <v>0</v>
+      <c r="F211">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -9234,7 +9233,7 @@
       <c r="E212">
         <v>16</v>
       </c>
-      <c r="F212" s="2">
+      <c r="F212">
         <v>2</v>
       </c>
     </row>
@@ -9254,7 +9253,7 @@
       <c r="E213">
         <v>17</v>
       </c>
-      <c r="F213" s="2">
+      <c r="F213">
         <v>2</v>
       </c>
     </row>
@@ -9274,8 +9273,8 @@
       <c r="E214">
         <v>6</v>
       </c>
-      <c r="F214" s="2">
-        <v>0</v>
+      <c r="F214">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -9294,8 +9293,8 @@
       <c r="E215">
         <v>23</v>
       </c>
-      <c r="F215" s="2">
-        <v>0</v>
+      <c r="F215">
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -9314,7 +9313,7 @@
       <c r="E216">
         <v>13</v>
       </c>
-      <c r="F216" s="2">
+      <c r="F216">
         <v>2</v>
       </c>
     </row>
@@ -9334,8 +9333,8 @@
       <c r="E217">
         <v>24</v>
       </c>
-      <c r="F217" s="2">
-        <v>0</v>
+      <c r="F217">
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -9354,7 +9353,7 @@
       <c r="E218">
         <v>4</v>
       </c>
-      <c r="F218" s="2">
+      <c r="F218">
         <v>2</v>
       </c>
     </row>
@@ -9374,7 +9373,7 @@
       <c r="E219">
         <v>23</v>
       </c>
-      <c r="F219" s="2">
+      <c r="F219">
         <v>1</v>
       </c>
     </row>
@@ -9394,8 +9393,8 @@
       <c r="E220">
         <v>1</v>
       </c>
-      <c r="F220" s="2">
-        <v>0</v>
+      <c r="F220">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -9414,7 +9413,7 @@
       <c r="E221">
         <v>23</v>
       </c>
-      <c r="F221" s="2">
+      <c r="F221">
         <v>2</v>
       </c>
     </row>
@@ -9434,8 +9433,8 @@
       <c r="E222">
         <v>25</v>
       </c>
-      <c r="F222" s="2">
-        <v>0</v>
+      <c r="F222">
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -9454,8 +9453,8 @@
       <c r="E223">
         <v>3</v>
       </c>
-      <c r="F223" s="2">
-        <v>0</v>
+      <c r="F223">
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -9474,7 +9473,7 @@
       <c r="E224">
         <v>13</v>
       </c>
-      <c r="F224" s="2">
+      <c r="F224">
         <v>2</v>
       </c>
     </row>
@@ -9494,8 +9493,8 @@
       <c r="E225">
         <v>11</v>
       </c>
-      <c r="F225" s="2">
-        <v>0</v>
+      <c r="F225">
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -9514,7 +9513,7 @@
       <c r="E226">
         <v>12</v>
       </c>
-      <c r="F226" s="2">
+      <c r="F226">
         <v>2</v>
       </c>
     </row>
@@ -9534,7 +9533,7 @@
       <c r="E227">
         <v>17</v>
       </c>
-      <c r="F227" s="2">
+      <c r="F227">
         <v>2</v>
       </c>
     </row>
@@ -9554,7 +9553,7 @@
       <c r="E228">
         <v>26</v>
       </c>
-      <c r="F228" s="2">
+      <c r="F228">
         <v>2</v>
       </c>
     </row>
@@ -9574,7 +9573,7 @@
       <c r="E229">
         <v>9</v>
       </c>
-      <c r="F229" s="2">
+      <c r="F229">
         <v>2</v>
       </c>
     </row>
@@ -9594,7 +9593,7 @@
       <c r="E230">
         <v>22</v>
       </c>
-      <c r="F230" s="2">
+      <c r="F230">
         <v>2</v>
       </c>
     </row>
@@ -9614,7 +9613,7 @@
       <c r="E231">
         <v>26</v>
       </c>
-      <c r="F231" s="2">
+      <c r="F231">
         <v>1</v>
       </c>
     </row>
@@ -9634,7 +9633,7 @@
       <c r="E232">
         <v>27</v>
       </c>
-      <c r="F232" s="2">
+      <c r="F232">
         <v>1</v>
       </c>
     </row>
@@ -9654,8 +9653,8 @@
       <c r="E233">
         <v>1</v>
       </c>
-      <c r="F233" s="2">
-        <v>0</v>
+      <c r="F233">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -9674,8 +9673,8 @@
       <c r="E234">
         <v>8</v>
       </c>
-      <c r="F234" s="2">
-        <v>0</v>
+      <c r="F234">
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -9694,7 +9693,7 @@
       <c r="E235">
         <v>3</v>
       </c>
-      <c r="F235" s="2">
+      <c r="F235">
         <v>1</v>
       </c>
     </row>
@@ -9714,8 +9713,8 @@
       <c r="E236">
         <v>19</v>
       </c>
-      <c r="F236" s="2">
-        <v>0</v>
+      <c r="F236">
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -9734,7 +9733,7 @@
       <c r="E237">
         <v>19</v>
       </c>
-      <c r="F237" s="2">
+      <c r="F237">
         <v>1</v>
       </c>
     </row>
@@ -9754,8 +9753,8 @@
       <c r="E238">
         <v>5</v>
       </c>
-      <c r="F238" s="2">
-        <v>0</v>
+      <c r="F238">
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -9774,7 +9773,7 @@
       <c r="E239">
         <v>17</v>
       </c>
-      <c r="F239" s="2">
+      <c r="F239">
         <v>2</v>
       </c>
     </row>
@@ -9794,7 +9793,7 @@
       <c r="E240">
         <v>27</v>
       </c>
-      <c r="F240" s="2">
+      <c r="F240">
         <v>1</v>
       </c>
     </row>
@@ -9814,7 +9813,7 @@
       <c r="E241">
         <v>8</v>
       </c>
-      <c r="F241" s="2">
+      <c r="F241">
         <v>1</v>
       </c>
     </row>
@@ -9834,7 +9833,7 @@
       <c r="E242">
         <v>9</v>
       </c>
-      <c r="F242" s="2">
+      <c r="F242">
         <v>2</v>
       </c>
     </row>
@@ -9854,7 +9853,7 @@
       <c r="E243">
         <v>1</v>
       </c>
-      <c r="F243" s="2">
+      <c r="F243">
         <v>2</v>
       </c>
     </row>
@@ -9874,7 +9873,7 @@
       <c r="E244">
         <v>17</v>
       </c>
-      <c r="F244" s="2">
+      <c r="F244">
         <v>2</v>
       </c>
     </row>
@@ -9894,7 +9893,7 @@
       <c r="E245">
         <v>7</v>
       </c>
-      <c r="F245" s="2">
+      <c r="F245">
         <v>2</v>
       </c>
     </row>
@@ -9914,7 +9913,7 @@
       <c r="E246">
         <v>1</v>
       </c>
-      <c r="F246" s="2">
+      <c r="F246">
         <v>1</v>
       </c>
     </row>
@@ -9934,7 +9933,7 @@
       <c r="E247">
         <v>25</v>
       </c>
-      <c r="F247" s="2">
+      <c r="F247">
         <v>2</v>
       </c>
     </row>
@@ -9954,7 +9953,7 @@
       <c r="E248">
         <v>27</v>
       </c>
-      <c r="F248" s="2">
+      <c r="F248">
         <v>2</v>
       </c>
     </row>
@@ -9974,8 +9973,8 @@
       <c r="E249">
         <v>20</v>
       </c>
-      <c r="F249" s="2">
-        <v>0</v>
+      <c r="F249">
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -9994,7 +9993,7 @@
       <c r="E250">
         <v>8</v>
       </c>
-      <c r="F250" s="2">
+      <c r="F250">
         <v>1</v>
       </c>
     </row>
@@ -10014,7 +10013,7 @@
       <c r="E251">
         <v>17</v>
       </c>
-      <c r="F251" s="2">
+      <c r="F251">
         <v>2</v>
       </c>
     </row>
@@ -10034,7 +10033,7 @@
       <c r="E252">
         <v>7</v>
       </c>
-      <c r="F252" s="2">
+      <c r="F252">
         <v>1</v>
       </c>
     </row>
@@ -10054,7 +10053,7 @@
       <c r="E253">
         <v>21</v>
       </c>
-      <c r="F253" s="2">
+      <c r="F253">
         <v>2</v>
       </c>
     </row>
@@ -10074,8 +10073,8 @@
       <c r="E254">
         <v>13</v>
       </c>
-      <c r="F254" s="2">
-        <v>0</v>
+      <c r="F254">
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -10094,8 +10093,8 @@
       <c r="E255">
         <v>1</v>
       </c>
-      <c r="F255" s="2">
-        <v>0</v>
+      <c r="F255">
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -10114,8 +10113,8 @@
       <c r="E256">
         <v>27</v>
       </c>
-      <c r="F256" s="2">
-        <v>0</v>
+      <c r="F256">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -10134,7 +10133,7 @@
       <c r="E257">
         <v>5</v>
       </c>
-      <c r="F257" s="2">
+      <c r="F257">
         <v>1</v>
       </c>
     </row>
@@ -10154,7 +10153,7 @@
       <c r="E258">
         <v>5</v>
       </c>
-      <c r="F258" s="2">
+      <c r="F258">
         <v>2</v>
       </c>
     </row>
@@ -10174,7 +10173,7 @@
       <c r="E259">
         <v>3</v>
       </c>
-      <c r="F259" s="2">
+      <c r="F259">
         <v>2</v>
       </c>
     </row>
@@ -10194,8 +10193,8 @@
       <c r="E260">
         <v>3</v>
       </c>
-      <c r="F260" s="2">
-        <v>0</v>
+      <c r="F260">
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -10214,7 +10213,7 @@
       <c r="E261">
         <v>15</v>
       </c>
-      <c r="F261" s="2">
+      <c r="F261">
         <v>1</v>
       </c>
     </row>
@@ -10234,8 +10233,8 @@
       <c r="E262">
         <v>15</v>
       </c>
-      <c r="F262" s="2">
-        <v>0</v>
+      <c r="F262">
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -10254,7 +10253,7 @@
       <c r="E263">
         <v>26</v>
       </c>
-      <c r="F263" s="2">
+      <c r="F263">
         <v>1</v>
       </c>
     </row>
@@ -10274,8 +10273,8 @@
       <c r="E264">
         <v>9</v>
       </c>
-      <c r="F264" s="2">
-        <v>0</v>
+      <c r="F264">
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -10294,7 +10293,7 @@
       <c r="E265">
         <v>20</v>
       </c>
-      <c r="F265" s="2">
+      <c r="F265">
         <v>1</v>
       </c>
     </row>
@@ -10314,7 +10313,7 @@
       <c r="E266">
         <v>11</v>
       </c>
-      <c r="F266" s="2">
+      <c r="F266">
         <v>1</v>
       </c>
     </row>
@@ -10334,7 +10333,7 @@
       <c r="E267">
         <v>6</v>
       </c>
-      <c r="F267" s="2">
+      <c r="F267">
         <v>2</v>
       </c>
     </row>
@@ -10354,7 +10353,7 @@
       <c r="E268">
         <v>17</v>
       </c>
-      <c r="F268" s="2">
+      <c r="F268">
         <v>2</v>
       </c>
     </row>
@@ -10374,8 +10373,8 @@
       <c r="E269">
         <v>16</v>
       </c>
-      <c r="F269" s="2">
-        <v>0</v>
+      <c r="F269">
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -10394,7 +10393,7 @@
       <c r="E270">
         <v>7</v>
       </c>
-      <c r="F270" s="2">
+      <c r="F270">
         <v>2</v>
       </c>
     </row>
@@ -10414,7 +10413,7 @@
       <c r="E271">
         <v>10</v>
       </c>
-      <c r="F271" s="2">
+      <c r="F271">
         <v>2</v>
       </c>
     </row>
@@ -10434,8 +10433,8 @@
       <c r="E272">
         <v>3</v>
       </c>
-      <c r="F272" s="2">
-        <v>0</v>
+      <c r="F272">
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -10454,7 +10453,7 @@
       <c r="E273">
         <v>14</v>
       </c>
-      <c r="F273" s="2">
+      <c r="F273">
         <v>2</v>
       </c>
     </row>
@@ -10474,7 +10473,7 @@
       <c r="E274">
         <v>13</v>
       </c>
-      <c r="F274" s="2">
+      <c r="F274">
         <v>1</v>
       </c>
     </row>
@@ -10494,7 +10493,7 @@
       <c r="E275">
         <v>24</v>
       </c>
-      <c r="F275" s="2">
+      <c r="F275">
         <v>1</v>
       </c>
     </row>
@@ -10514,8 +10513,8 @@
       <c r="E276">
         <v>17</v>
       </c>
-      <c r="F276" s="2">
-        <v>0</v>
+      <c r="F276">
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -10534,7 +10533,7 @@
       <c r="E277">
         <v>6</v>
       </c>
-      <c r="F277" s="2">
+      <c r="F277">
         <v>1</v>
       </c>
     </row>
@@ -10554,7 +10553,7 @@
       <c r="E278">
         <v>14</v>
       </c>
-      <c r="F278" s="2">
+      <c r="F278">
         <v>2</v>
       </c>
     </row>
@@ -10574,7 +10573,7 @@
       <c r="E279">
         <v>5</v>
       </c>
-      <c r="F279" s="2">
+      <c r="F279">
         <v>2</v>
       </c>
     </row>
@@ -10594,7 +10593,7 @@
       <c r="E280">
         <v>21</v>
       </c>
-      <c r="F280" s="2">
+      <c r="F280">
         <v>2</v>
       </c>
     </row>
@@ -10614,8 +10613,8 @@
       <c r="E281">
         <v>24</v>
       </c>
-      <c r="F281" s="2">
-        <v>0</v>
+      <c r="F281">
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -10634,7 +10633,7 @@
       <c r="E282">
         <v>18</v>
       </c>
-      <c r="F282" s="2">
+      <c r="F282">
         <v>1</v>
       </c>
     </row>
@@ -10654,7 +10653,7 @@
       <c r="E283">
         <v>3</v>
       </c>
-      <c r="F283" s="2">
+      <c r="F283">
         <v>1</v>
       </c>
     </row>
@@ -10674,8 +10673,8 @@
       <c r="E284">
         <v>2</v>
       </c>
-      <c r="F284" s="2">
-        <v>0</v>
+      <c r="F284">
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -10694,7 +10693,7 @@
       <c r="E285">
         <v>18</v>
       </c>
-      <c r="F285" s="2">
+      <c r="F285">
         <v>2</v>
       </c>
     </row>
@@ -10714,7 +10713,7 @@
       <c r="E286">
         <v>20</v>
       </c>
-      <c r="F286" s="2">
+      <c r="F286">
         <v>2</v>
       </c>
     </row>
@@ -10734,7 +10733,7 @@
       <c r="E287">
         <v>19</v>
       </c>
-      <c r="F287" s="2">
+      <c r="F287">
         <v>2</v>
       </c>
     </row>
@@ -10754,7 +10753,7 @@
       <c r="E288">
         <v>26</v>
       </c>
-      <c r="F288" s="2">
+      <c r="F288">
         <v>2</v>
       </c>
     </row>
@@ -10774,7 +10773,7 @@
       <c r="E289">
         <v>27</v>
       </c>
-      <c r="F289" s="2">
+      <c r="F289">
         <v>2</v>
       </c>
     </row>
@@ -10794,7 +10793,7 @@
       <c r="E290">
         <v>28</v>
       </c>
-      <c r="F290" s="2">
+      <c r="F290">
         <v>1</v>
       </c>
     </row>
@@ -10814,8 +10813,8 @@
       <c r="E291">
         <v>4</v>
       </c>
-      <c r="F291" s="2">
-        <v>0</v>
+      <c r="F291">
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -10834,7 +10833,7 @@
       <c r="E292">
         <v>14</v>
       </c>
-      <c r="F292" s="2">
+      <c r="F292">
         <v>2</v>
       </c>
     </row>
@@ -10854,7 +10853,7 @@
       <c r="E293">
         <v>24</v>
       </c>
-      <c r="F293" s="2">
+      <c r="F293">
         <v>1</v>
       </c>
     </row>
@@ -10874,8 +10873,8 @@
       <c r="E294">
         <v>21</v>
       </c>
-      <c r="F294" s="2">
-        <v>0</v>
+      <c r="F294">
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -10894,7 +10893,7 @@
       <c r="E295">
         <v>18</v>
       </c>
-      <c r="F295" s="2">
+      <c r="F295">
         <v>2</v>
       </c>
     </row>
@@ -10914,7 +10913,7 @@
       <c r="E296">
         <v>28</v>
       </c>
-      <c r="F296" s="2">
+      <c r="F296">
         <v>1</v>
       </c>
     </row>
@@ -10934,7 +10933,7 @@
       <c r="E297">
         <v>2</v>
       </c>
-      <c r="F297" s="2">
+      <c r="F297">
         <v>2</v>
       </c>
     </row>
@@ -10954,7 +10953,7 @@
       <c r="E298">
         <v>24</v>
       </c>
-      <c r="F298" s="2">
+      <c r="F298">
         <v>2</v>
       </c>
     </row>
@@ -10974,7 +10973,7 @@
       <c r="E299">
         <v>14</v>
       </c>
-      <c r="F299" s="2">
+      <c r="F299">
         <v>1</v>
       </c>
     </row>
@@ -10994,7 +10993,7 @@
       <c r="E300">
         <v>10</v>
       </c>
-      <c r="F300" s="2">
+      <c r="F300">
         <v>2</v>
       </c>
     </row>
@@ -11014,7 +11013,7 @@
       <c r="E301">
         <v>5</v>
       </c>
-      <c r="F301" s="2">
+      <c r="F301">
         <v>1</v>
       </c>
     </row>
@@ -11034,7 +11033,7 @@
       <c r="E302">
         <v>7</v>
       </c>
-      <c r="F302" s="2">
+      <c r="F302">
         <v>2</v>
       </c>
     </row>
@@ -11054,7 +11053,7 @@
       <c r="E303">
         <v>24</v>
       </c>
-      <c r="F303" s="2">
+      <c r="F303">
         <v>2</v>
       </c>
     </row>
@@ -11074,7 +11073,7 @@
       <c r="E304">
         <v>24</v>
       </c>
-      <c r="F304" s="2">
+      <c r="F304">
         <v>1</v>
       </c>
     </row>
@@ -11088,13 +11087,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="160" workbookViewId="0">
-      <selection activeCell="A207" sqref="A207:F226"/>
+    <sheetView topLeftCell="B1" zoomScale="106" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="64.5546875" customWidth="1"/>
+    <col min="2" max="2" width="84.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11394,7 +11393,7 @@
         <v>22</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -11414,7 +11413,7 @@
         <v>27</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -11434,7 +11433,7 @@
         <v>26</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -11454,7 +11453,7 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -11474,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -11494,7 +11493,7 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -11674,7 +11673,7 @@
         <v>23</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -11694,7 +11693,7 @@
         <v>25</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -11814,7 +11813,7 @@
         <v>16</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -11894,7 +11893,7 @@
         <v>12</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -11994,7 +11993,7 @@
         <v>19</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -12134,7 +12133,7 @@
         <v>2</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -12194,7 +12193,7 @@
         <v>20</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -12274,7 +12273,7 @@
         <v>22</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -12374,7 +12373,7 @@
         <v>6</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -12434,7 +12433,7 @@
         <v>12</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -12454,7 +12453,7 @@
         <v>20</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -12494,7 +12493,7 @@
         <v>10</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -12574,7 +12573,7 @@
         <v>11</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -12614,7 +12613,7 @@
         <v>15</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -12634,7 +12633,7 @@
         <v>27</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -12674,7 +12673,7 @@
         <v>26</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -12814,7 +12813,7 @@
         <v>19</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -12834,7 +12833,7 @@
         <v>14</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -12954,7 +12953,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -12974,7 +12973,7 @@
         <v>15</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -12994,7 +12993,7 @@
         <v>3</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -13034,7 +13033,7 @@
         <v>16</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -13074,7 +13073,7 @@
         <v>11</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -13214,7 +13213,7 @@
         <v>17</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -13254,7 +13253,7 @@
         <v>2</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -13274,7 +13273,7 @@
         <v>7</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -13374,7 +13373,7 @@
         <v>25</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -13434,7 +13433,7 @@
         <v>8</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -13514,7 +13513,7 @@
         <v>18</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -13694,7 +13693,7 @@
         <v>20</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -13974,7 +13973,7 @@
         <v>23</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -13994,7 +13993,7 @@
         <v>22</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -14034,7 +14033,7 @@
         <v>16</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -14054,7 +14053,7 @@
         <v>28</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -14214,7 +14213,7 @@
         <v>9</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -14254,7 +14253,7 @@
         <v>7</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -14294,7 +14293,7 @@
         <v>6</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -14314,7 +14313,7 @@
         <v>4</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -14354,7 +14353,7 @@
         <v>9</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -14514,7 +14513,7 @@
         <v>14</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -14634,7 +14633,7 @@
         <v>4</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -14654,7 +14653,7 @@
         <v>20</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -14714,7 +14713,7 @@
         <v>17</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -14774,7 +14773,7 @@
         <v>23</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -14894,7 +14893,7 @@
         <v>4</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -14934,7 +14933,7 @@
         <v>5</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -14994,7 +14993,7 @@
         <v>16</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -15074,7 +15073,7 @@
         <v>1</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -15094,7 +15093,7 @@
         <v>20</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -15154,7 +15153,7 @@
         <v>4</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -15174,7 +15173,7 @@
         <v>15</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -15194,7 +15193,7 @@
         <v>22</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
